--- a/Excel/Top 1000 Words in Gilaki (Farsi).xlsx
+++ b/Excel/Top 1000 Words in Gilaki (Farsi).xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>اعضا</t>
+          <t>عضو</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -819,1672 +819,1672 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>اي مۊشته</t>
+          <t>اي وخت</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>اي مۊشته بج مرأ فأدن</t>
+          <t>اي وخت پۊر ترأ خأستيم</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>یک مشت</t>
+          <t>زمانی</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>یک مشت برنج به من بده</t>
+          <t>زمانی تو را خیلى می‌خواستم</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>اي وخت</t>
+          <t>اي ور</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>اي وخت پۊر ترأ خأستيم</t>
+          <t>أن ٚ رختان هرتأ اي ور کفته</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>زمانی</t>
+          <t>یک گوشه</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>زمانی تو را خیلى می‌خواستم</t>
+          <t>هرکدام از لباس‌هایش یک گوشه افتاده است</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>اي ور</t>
+          <t>اي وري</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>أن ٚ رختان هرتأ اي ور کفته</t>
+          <t>أ تابلؤ چي ره اي وري نهأ؟</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>یک گوشه</t>
+          <t>کج</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>هرکدام از لباس‌هایش یک گوشه افتاده است</t>
+          <t>برای چه این تابلو کج است؟</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>اي وري</t>
+          <t>اي پئم</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>أ تابلؤ چي ره اي وري نهأ؟</t>
+          <t>اي پئم سيبيشکا مرأ فأدي؟</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>کج</t>
+          <t>یک مشت</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>برای چه این تابلو کج است؟</t>
+          <t>یک مشت تخمه آفتابگردان به من مى‌دهى؟</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>اي پئم</t>
+          <t>ايتأ</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>اي پئم سيبيشکا مرأ فأدي؟</t>
+          <t>ايتأ کاغذ مرأ فأدن</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>یک مشت</t>
+          <t>یک</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>یک مشت تخمه آفتابگردان به من مى‌دهى؟</t>
+          <t>یک کاغذ به من بده</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ايتأ</t>
+          <t>ايجانا</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ايتأ کاغذ مرأ فأدن</t>
+          <t>من ؤ ميعاد ايجانا بۊشؤئيم بيرۊن</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>یک</t>
+          <t>با هم</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>یک کاغذ به من بده</t>
+          <t>من و میعاد با هم بیرون رفتیم</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ايجانا</t>
+          <t>ايدانه</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>من ؤ ميعاد ايجانا بۊشؤئيم بيرۊن</t>
+          <t>ايدانه کۊئي خأيم</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>با هم</t>
+          <t>یک عدد</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>من و میعاد با هم بیرون رفتیم</t>
+          <t>یک عدد کدو مى‌خواهم</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ايدانه</t>
+          <t>ايدفأ</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ايدانه کۊئي خأيم</t>
+          <t>ايدفأ بامؤم شيمي خانه</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>یک عدد</t>
+          <t>یک بار</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>یک عدد کدو مى‌خواهم</t>
+          <t>یک بار به خانه شما آمدم</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ايدفأ</t>
+          <t>ايدفأئي</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ايدفأ بامؤم شيمي خانه</t>
+          <t>ناصر ايدفأئي بامؤ اۊتاق ٚ دۊرۊن</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>یک‌بار</t>
+          <t>ناگهان</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>یک‌بار به خانه شما آمدم</t>
+          <t>ناصر ناگهان داخل اتاق آمد</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ايدفأئي</t>
+          <t>ايدقه</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ناصر ايدفأئي بامؤ اۊتاق ٚ دۊرۊن</t>
+          <t>ايدقه بئس</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ناگهان</t>
+          <t>یک دقیقه</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ناصر ناگهان داخل اتاق آمد</t>
+          <t>یک دقیقه صبر کن</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ايدقه</t>
+          <t>ايرۊز</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ايدقه بئس</t>
+          <t>ايرۊز دئه بمانسته مي تعطيلي-يان تۊمانأ به</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>یک دقیقه</t>
+          <t>یک روز</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>یک دقیقه صبر کن</t>
+          <t>یک روز دیگر مانده تا تعطیلاتم تمام شود</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ايرۊز</t>
+          <t>ايزه</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ايرۊز دئه بمانسته مي تعطيلي-يان تۊمانأ به</t>
+          <t>ايزه بۊشۊ اۊشنتر</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>یک‌روز</t>
+          <t>کمى</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>یک‌روز دیگر مانده تا تعطیلاتم تمام شود</t>
+          <t>کمى آن طرف‌تر برو</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ايزه</t>
+          <t>ايسأبيد</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ايزه بۊشۊ اۊشنتر</t>
+          <t>ديشب همه أمي خانه ايسابيد</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>کمى</t>
+          <t>بودند</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>کمى آن طرف‌تر برو</t>
+          <t>همه دیشب خانه ما بودند</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ايسأبيد</t>
+          <t>ايستۊل</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ديشب همه أمي خانه ايسابيد</t>
+          <t>أشأن چۊب ٚ جأ ایستۊل چأکۊنيد</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>بودند</t>
+          <t>صندلی</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>همه دیشب خانه ما بودند</t>
+          <t>آن‌ها از چوب صندلی می‌سازند</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ايستۊل</t>
+          <t>ايسم</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>أشأن چۊب ٚ جأ ایستۊل چأکۊنيد</t>
+          <t>تي ايسم چيسه؟</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>صندلی</t>
+          <t>نام</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>آن‌ها از چوب صندلی می‌سازند</t>
+          <t>نام تو چیست؟</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ايسم</t>
+          <t>ايسيد؟</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>تي ايسم چيسه؟</t>
+          <t>شۊمان چن نفر ايسيد؟</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>نام</t>
+          <t>هستید؟</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>نام تو چیست؟</t>
+          <t>شما چند نفر هستید؟</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ايسيد؟</t>
+          <t>ايسکمۊ</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>شۊمان چن نفر ايسيد؟</t>
+          <t>بۊشۊ دۊکان دۊتا ايسکمۊ بيهين</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>هستید؟</t>
+          <t>بستنی یخی</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>شما چند نفر هستید؟</t>
+          <t>برو مغازه دو عدد بستنی یخی بخر</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ايسکمۊ</t>
+          <t>ايشتاو</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>بۊشۊ دۊکان دۊتا ايسکمۊ بيهين</t>
+          <t>هأی أمرأ ايشتاو ديهه</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>بستنی یخی</t>
+          <t>هشدار</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>برو مغازه دو عدد بستنی یخی بخر</t>
+          <t>مدام به ما هشدار می‌دهد</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ايشتاو</t>
+          <t>ايشتاوي</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>هأی أمرأ ايشتاو ديهه</t>
+          <t>ايشتاوي چي گمه؟</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>هشدار</t>
+          <t>می‌شنوی</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>مدام به ما هشدار می‌دهد</t>
+          <t>می‌شنوی چه می‌گویم؟</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ايشتاوي</t>
+          <t>ايششه</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ايشتاوي چي گمه؟</t>
+          <t>ايششه، لانتي</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>می‌شنوی</t>
+          <t>اه (لفظ تنفر)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>می‌شنوی چه می‌گویم؟</t>
+          <t>اه، مار</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ايششه</t>
+          <t>ايشماردن</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ايششه، لانتي</t>
+          <t>مي زأى ايشماردنأ نأنه</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>اه (لفظ تنفر)</t>
+          <t>شمارش</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>اه، مار</t>
+          <t>بچه من شمارش بلد نیست</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ايشماردن</t>
+          <t>ايشکؤر</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>مي زأى ايشماردنأ نأنه</t>
+          <t>کيشکائان ٚ رئم ايشکؤر فۊکۊن</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>شمارش</t>
+          <t>خرده‌برنج</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>بچه من شمارش بلد نیست</t>
+          <t>برای جوجه‌ها هم خرده‌برنج بریز</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ايشکؤر</t>
+          <t>ايشکنئن</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>کيشکائان ٚ رئم ايشکؤر فۊکۊن</t>
+          <t>چي-يأ ايشکنئن دري؟</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>خرده‌برنج</t>
+          <t>شکستن</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>برای جوجه‌ها هم خرده‌برنج بریز</t>
+          <t>دارى چه چیزى را مى‌شکنى؟</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ايشکنئن</t>
+          <t>ايمرۊ</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>چي-يأ ايشکنئن دري؟</t>
+          <t>ايمرۊ بۊشؤم کيتابخانه</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>شکستن</t>
+          <t>امروز</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>دارى چه چیزى را مى‌شکنى؟</t>
+          <t>امروز به کتابخانه رفتم</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ايمرۊ</t>
+          <t>اينسان</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ايمرۊ بۊشؤم کيتابخانه</t>
+          <t>اينسان بۊبۊ</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>امروز</t>
+          <t>انسان</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>امروز به کتابخانه رفتم</t>
+          <t>انسان باش</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>اينسان</t>
+          <t>ايوار ايوار</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>اينسان بۊبۊ</t>
+          <t>ايوار ايوار شئطان مرأ گه . . .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>انسان</t>
+          <t>گهگاه</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>انسان باش</t>
+          <t>گهگاه شیطان به من مى‌گوید . . .</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ايوار ايوار</t>
+          <t>ايواردم</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ايوار ايوار شئطان مرأ گه . . .</t>
+          <t>ايواردم وا بشم بازار</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>گهگاه</t>
+          <t>یک بار دیگر</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>گهگاه شیطان به من مى‌گوید . . .</t>
+          <t>یک بار دیگر باید به بازار بروم</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ايواردم</t>
+          <t>ايوارٚکي</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ايواردم وا بشم بازار</t>
+          <t>ايوارٚکي بۊگۊ نأيم ترأ راحتأ کۊن</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>یک بار دیگر</t>
+          <t>به یک باره</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>یک بار دیگر باید به بازار بروم</t>
+          <t>به یک باره بگو نمى‌آیم خودت را خلاص کن</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ايوارٚکي</t>
+          <t>ايپيچم</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ايوارٚکي بۊگۊ نأيم ترأ راحتأ کۊن</t>
+          <t>گۊش نۊکۊني ايپيچم ترأيأ</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>به یک‌باره</t>
+          <t>برخورد تندی می‌کنم</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>به یک باره بگو نمى‌آیم خودت را خلاص کن</t>
+          <t>توجه نکنى برخورد تندى با تو مى‌کنم</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ايپيچم</t>
+          <t>ايپچه</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>گۊش نۊکۊني ايپيچم ترأيأ</t>
+          <t>ايپچه پلا مه ره دۊکۊن</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>برخورد تندی می‌کنم</t>
+          <t>کمی</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>توجه نکنى برخورد تندى با تو مى‌کنم</t>
+          <t>کمى پلو براى من بریز</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ايپچه</t>
+          <t>ايچي</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ايپچه پلا مه ره دۊکۊن</t>
+          <t>ايچي خأيم ترأ بگم</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>کمی</t>
+          <t>یک‌چیز</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>کمى پلو براى من بریز</t>
+          <t>یک‌چیز مى‌خواهم به تو بگویم</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ايچي</t>
+          <t>اۊتاق</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ايچي خأيم ترأ بگم</t>
+          <t>مي اۊتاق کؤيتأ ايسه؟</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>یک‌چیز</t>
+          <t>اتاق</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>یک‌چیز مى‌خواهم به تو بگویم</t>
+          <t>اتاق من کدام یک است؟</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>اۊتاق</t>
+          <t>اۊدۊشتن</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>مي اۊتاق کؤيتأ ايسه؟</t>
+          <t>سۊمبۊر ٚ مأنستن أمي خۊنأ اۊدۊشتن دريد</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>اتاق</t>
+          <t>مکیدن</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>اتاق من کدام یک است؟</t>
+          <t>مانند زالو دارند خون ما را مى‌دوشند</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>اۊدۊشتن</t>
+          <t>اۊرشين</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>سۊمبۊر ٚ مأنستن أمي خۊنأ اۊدۊشتن دريد</t>
+          <t>کترأيأ اۊسادم قاتؤقا اۊرشين بزئم</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>مکیدن</t>
+          <t>هم زدن</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>مانند زالو دارند خون ما را مى‌دوشند</t>
+          <t>کفگیر چوبى را برداشتم خورش را هم زدم</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>اۊرشين</t>
+          <t>اۊسان</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>کترأيأ اۊسادم قاتؤقا اۊرشين بزئم</t>
+          <t>قاقؤشاقانأ اۊسان بأور</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>هم زدن</t>
+          <t>بردار</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>کفگیر چوبى را برداشتم خورش را هم زدم</t>
+          <t>قاشق‌ها را بردار بیاور</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>اۊسان</t>
+          <t>اۊسه کۊد</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>قاقؤشاقانأ اۊسان بأور</t>
+          <t>أ کيتابأ کي اۊسه کۊد؟</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>بردار</t>
+          <t>فرستاد</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>قاشق‌ها را بردار بیاور</t>
+          <t>این کتاب را چه کسی فرستاد؟</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>اۊسه کۊد</t>
+          <t>اۊشان</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>أ کيتابأ کي اۊسه کۊد؟</t>
+          <t>اۊشان کيسيد؟</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>فرستاد</t>
+          <t>آن‌ها</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>این کتاب را چه کسی فرستاد؟</t>
+          <t>آن‌ها کیستند؟</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>اۊشان</t>
+          <t>اۊشکؤفت</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>اۊشان کيسيد؟</t>
+          <t>آب مرأ اۊشکؤفت</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>آن‌ها</t>
+          <t>در گلو گیر کرد</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>آن‌ها چه کسانى هستند؟</t>
+          <t>آب در گلویم گیر کرد</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>اۊشکؤفت</t>
+          <t>اۊن</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>آب مرأ اۊشکؤفت</t>
+          <t>اۊن چيسه؟</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>در گلو گیر کرد</t>
+          <t>آن</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>آب در گلویم گیر کرد</t>
+          <t>آن چیست؟</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>اۊن</t>
+          <t>اۊيأ</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>اۊن چيسه؟</t>
+          <t>مهين ٚ کيف اۊيأ نهأ</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>آن</t>
+          <t>آن‌جا</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>آن چیست؟</t>
+          <t>کیف مهین آن‌جا است</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>اۊيأ</t>
+          <t>اۊچين</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>مهين ٚ کيف اۊيأ نهأ</t>
+          <t>تي کيتابانأ اۊچين</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>آن‌جا</t>
+          <t>جمع کن</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>کیف مهین آن‌جا است</t>
+          <t>کتاب‌هایت را جمع کن</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>اۊچين</t>
+          <t>اۊکۊف</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>تي کيتابانأ اۊچين</t>
+          <t>أمه ره اۊکۊف دره</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>جمع کن</t>
+          <t>شگون</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>کتاب‌هایت را جمع کن</t>
+          <t>براى ما شگون دارد</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>اۊکۊف</t>
+          <t>أ</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>أمه ره اۊکۊف دره</t>
+          <t>شۊفاژأ چأکۊدي؟</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>شگون</t>
+          <t>را</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>براى ما شگون دارد</t>
+          <t>شوفاژ را تعمیر کردی؟</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>أ</t>
+          <t>أتؤ</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>شۊفاژأ چأکۊدي؟</t>
+          <t>أتؤ نيه</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>را</t>
+          <t>چنین</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>شوفاژ را تعمیر کردی؟</t>
+          <t>چنین نیست</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>أتؤ</t>
+          <t>أجۊر</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>أتؤ نيه</t>
+          <t>أجۊر چي-يان مرأ حالي نيه</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>چنین</t>
+          <t>این‌گونه</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>چنین نیست</t>
+          <t>این‌گونه چیزها را متوجه نمى‌شوم</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>أجۊر</t>
+          <t>أذب</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>أجۊر چي-يان مرأ حالي نيه</t>
+          <t>مي برار أذبه</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>این‌گونه</t>
+          <t>مجرد</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>این‌گونه چیزها را متوجه نمى‌شوم</t>
+          <t>برادرم مجرد است</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>أذب</t>
+          <t>أرايم</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>مي برار أذبه</t>
+          <t>أرايم بيأ</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>مجرد</t>
+          <t>این‌طرف هم</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>برادرم مجرد است</t>
+          <t>این‌طرف هم بیا</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>أرايم</t>
+          <t>أرسۊ</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>أرايم بيأ</t>
+          <t>تي أرسۊئانأ پاکۊن</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>این‌طرف هم</t>
+          <t>اشک</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>این‌طرف هم بیا</t>
+          <t>اشک‌‌هایت را پاک کن</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>أرسۊ</t>
+          <t>أزازيل</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>تي أرسۊئانأ پاکۊن</t>
+          <t>أ أزازيل ٚ زاکانأ فأندر</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>اشک</t>
+          <t>بسیار شیطان</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>اشک‌‌هایت را پاک کن</t>
+          <t>این بچه‌هاى بسیار شیطان را نگاه کن</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>أزازيل</t>
+          <t>أسباب</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>أ أزازيل ٚ زاکانأ فأندر</t>
+          <t>ايپچه أسباب بأورم بۊخۊري؟</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>بسیار شیطان</t>
+          <t>خوراکى</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>این بچه‌هاى بسیار شیطان را نگاه کن</t>
+          <t>کمى خوراکى بیاورم بخورى؟</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>أسباب</t>
+          <t>أشان</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ايپچه أسباب بأورم بۊخۊري؟</t>
+          <t>أشان کي أمؤن دريد کيسيد؟</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>خوراکى</t>
+          <t>ایشان</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>کمى خوراکى بیاورم بخورى؟</t>
+          <t>ایشان که دارند مى‌آیند چه کسانى هستند؟</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>أشان</t>
+          <t>أشبل</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>أشان کي أمؤن دريد کيسيد؟</t>
+          <t>مائي أشبل ٚ مرأ کۊکۊ چأکۊنيدي</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ایشان</t>
+          <t>تخم ماهى</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>ایشان که دارند مى‌آیند چه کسانى هستند؟</t>
+          <t>با تخم ماهى کوکو درست مى‌کنند</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>أشبل</t>
+          <t>ألؤغ</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>مائي أشبل ٚ مرأ کۊکۊ چأکۊنيدي</t>
+          <t>باغ ٚ مئن ایتأ ألؤغ بیدئم</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>تخم ماهى</t>
+          <t>عقاب</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>با تخم ماهى کوکو درست مى‌کنند</t>
+          <t>در باغ یک عقاب دیدم</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ألؤغ</t>
+          <t>ألاو</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>باغ ٚ مئن ایتأ ألؤغ بیدئم</t>
+          <t>جه وس هوا سرده أمي دهنأ ألاو بيرۊن أيه</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>عقاب</t>
+          <t>بخار</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>در باغ یک عقاب دیدم</t>
+          <t>از بس هوا سرد است از دهان ما بخار خارج مى‌شود</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ألاو</t>
+          <t>ألباقي</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>جه وس هوا سرده أمي دهنأ ألاو بيرۊن أيه</t>
+          <t>شير ٚ ألباقي-يأ دۊکۊن جا دۊرۊن</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>بخار</t>
+          <t>باقى‌مانده</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>از بس هوا سرد است از دهان ما بخار خارج مى‌شود</t>
+          <t>باقى‌مانده شیر را داخل ظرف بریز</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ألباقي</t>
+          <t>ألنگ</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>شير ٚ ألباقي-يأ دۊکۊن جا دۊرۊن</t>
+          <t>مرأ ألنگ بزه بکفتم</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>باقى‌مانده</t>
+          <t>پشت پا</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>باقى‌مانده شیر را داخل ظرف بریز</t>
+          <t>به من پشت پا زد افتادم</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ألنگ</t>
+          <t>أمأن</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>مرأ ألنگ بزه بکفتم</t>
+          <t>أمأن دۊ نفريم</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>پشت پا</t>
+          <t>ما</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>به من پشت پا زد افتادم</t>
+          <t>ما دو نفر هستیم</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>أمأن</t>
+          <t>أمؤن</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>أمأن دۊ نفريم</t>
+          <t>ورزشگا جأ أمؤن درم</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ما</t>
+          <t>آمدن</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>ما دو نفر هستیم</t>
+          <t>دارم از استادیوم مى‌آیم</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>أمؤن</t>
+          <t>أمبست</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ورزشگا جأ أمؤن درم</t>
+          <t>أ دؤغ پۊر أمبسته</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>آمدن</t>
+          <t>غلیظ</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>دارم از استادیوم مى‌آیم</t>
+          <t>این دوغ خیلى غلیظ است</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>أمبست</t>
+          <t>أمرأ</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>أ دؤغ پۊر أمبسته</t>
+          <t>من تي أمرأ أيم</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>غلیظ</t>
+          <t>با</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>این دوغ خیلى غلیظ است</t>
+          <t>من با تو مى‌آیم</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>أمرأ</t>
+          <t>أمي</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>من تي أمرأ أيم</t>
+          <t>شۊمانم أمي أمرأ أئيدي؟</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>با</t>
+          <t>ما</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>من با تو مى‌آیم</t>
+          <t>شما هم با ما مى‌آیید؟</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>أمي</t>
+          <t>أن</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>شۊمانم أمي أمرأ أئيدي؟</t>
+          <t>أن چيسه؟</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>ما</t>
+          <t>این</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>شما هم با ما مى‌آیید؟</t>
+          <t>این چیست؟</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>أن</t>
+          <t>أنديفه</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>أن چيسه؟</t>
+          <t>أ ساعت چارصد تۊمۊن أنديفه دأره؟</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>این</t>
+          <t>ارزش</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>این چیست؟</t>
+          <t>این ساعت چهارصد تومن ارزش دارد؟</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>أنديفه</t>
+          <t>أنگاره</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>أ ساعت چارصد تۊمۊن أنديفه دأره؟</t>
+          <t>چي ره أنقد أنگاره بيده-ئي؟</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>ارزش</t>
+          <t>تدارک</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>این ساعت چهارصد تومن ارزش دارد؟</t>
+          <t>براى چه این‌قدر تدارک دیده‌اى؟</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>أنگاره</t>
+          <t>أوانگاره</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>چي ره أنقد أنگاره بيده-ئي؟</t>
+          <t>هأچين أمه ره أوانگاره بيده-ئيم</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>تدارک</t>
+          <t>دردسر</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>براى چه این‌قدر تدارک دیده‌اى؟</t>
+          <t>بیخود براى خودمان دردسر درست کردیم</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>أوانگاره</t>
+          <t>أوري</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>هأچين أمه ره أوانگاره بيده-ئيم</t>
+          <t>مي کافشينأ أوري؟</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>دردسر</t>
+          <t>می‌آوری</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>بیخود براى خودمان دردسر درست کردیم</t>
+          <t>کاپشن من را مى‌آورى؟</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>أوري</t>
+          <t>أولي</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>مي کافشينأ أوري؟</t>
+          <t>تي أولي زاکه؟</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>می‌آوری</t>
+          <t>اول</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>کاپشن من را مى‌آورى؟</t>
+          <t>فرزند اولت است؟</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>أولي</t>
+          <t>أوير</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>تي أولي زاکه؟</t>
+          <t>مي ساعتأ أويرأ کۊدم</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>اول</t>
+          <t>گم</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>فرزند اولت است؟</t>
+          <t>ساعتم را گم کردم</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>أوير</t>
+          <t>أويستي</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>مي ساعتأ أويرأ کۊدم</t>
+          <t>أشان دۊتا أويستي-يأ مأنيدي</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>گم</t>
+          <t>هوو</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>ساعتم را گم کردم</t>
+          <t>این دو نفر مانند هوو هم هستند</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>أويستي</t>
+          <t>أيأ</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>أشان دۊتا أويستي-يأ مأنيدي</t>
+          <t>تي کيليدانأ أيأ بنأ بۊم</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>هوو</t>
+          <t>این‌جا</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>این دو نفر مانند هوو هم هستند</t>
+          <t>کلیدهایت را این‌جا گذاشته بودم</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>أيأ</t>
+          <t>أياز</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>تي کيليدانأ أيأ بنأ بۊم</t>
+          <t>أياز بينيشته گۊلان ٚ سر</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>این‌جا</t>
+          <t>شبنم</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>کلیدهایت را این‌جا گذاشته بودم</t>
+          <t>شبنم روى گل‌ها نشسته است</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>أياز</t>
+          <t>أپچ</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>أياز بينيشته گۊلان ٚ سر</t>
+          <t>أن خۊج أپچه</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>شبنم</t>
+          <t>بی‌مزه</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>شبنم روى گل‌ها نشسته است</t>
+          <t>این گلابی وحشی بی‌مزه است</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>أپچ</t>
+          <t>أژدم</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>أن خۊج أپچه</t>
+          <t>تي پلا أژدمه</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>بی‌مزه</t>
+          <t>بسیار شور</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>این گلابی وحشی بی‌مزه است</t>
+          <t>پلو تو بسیار شور است</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>أژدم</t>
+          <t>أکه</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>تي پلا أژدمه</t>
+          <t>أکه تأنيم بازي بۊکۊنيم؟</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>بسیار شور</t>
+          <t>چه وقت</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>پلو تو بسیار شور است</t>
+          <t>چه وقت مى‌توانیم بازى کنیم؟</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>أکه</t>
+          <t>بأور</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>أکه تأنيم بازي بۊکۊنيم؟</t>
+          <t>بۊشۊ مي کيفأ بأور</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>چه وقت</t>
+          <t>بیاور</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>چه وقت مى‌توانیم بازى کنیم؟</t>
+          <t>برو کیفم را بیاور</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>بأور</t>
+          <t>بؤبؤسته</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>بۊشۊ مي کيفأ بأور</t>
+          <t>أ پلا دئه بؤبؤسته</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>بیاور</t>
+          <t>آماده</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>برو کیفم را بیاور</t>
+          <t>این پلو دیگر آماده است</t>
         </is>
       </c>
     </row>
@@ -2496,17 +2496,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>أ پلا دئه بؤبؤسته</t>
+          <t>چي بؤبؤسته؟</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>آماده</t>
+          <t>شده است</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>این پلو دیگر آماده است</t>
+          <t>چه شده است؟</t>
         </is>
       </c>
     </row>
@@ -2518,105 +2518,105 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>چي بؤبؤسته؟</t>
+          <t>مهسا مرد ٚ ره بؤبؤسته</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>شده است</t>
+          <t>شوهر کردن</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>چه شده است؟</t>
+          <t>مهسا شوهر کرد</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>بؤبؤسته</t>
+          <t>بؤرسفته</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>مهسا مرد ٚ ره بؤبؤسته</t>
+          <t>مي کيف ٚ بند بؤرسفته</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>شوهر کردن</t>
+          <t>پاره شد</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>مهسا شوهر کرد</t>
+          <t>بند کیفم پاره شد</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>بؤرسفته</t>
+          <t>بؤرسن</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>مي کيف ٚ بند بؤرسفته</t>
+          <t>دئه بؤرسن</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>پاره شد</t>
+          <t>تمام کن</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>بند کیفم پاره شد</t>
+          <t>دیگر تمام کن</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>بؤرسن</t>
+          <t>بؤق</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>دئه بؤرسن</t>
+          <t>ماشين ٚ شيشه بؤق بۊکۊده</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>تمام کن</t>
+          <t>بخار</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>دیگر تمام کن</t>
+          <t>شیشه ماشین بخار کرده است</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>بؤق</t>
+          <t>بئس</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ماشين ٚ شيشه بؤق بۊکۊده</t>
+          <t>ايمشبأ أمي خانه بئس</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>بخار</t>
+          <t>بمان</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>شیشه ماشین بخار کرده است</t>
+          <t>امشب را در خانه ما بمان</t>
         </is>
       </c>
     </row>
@@ -2628,259 +2628,259 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ايمشبأ أمي خانه بئس</t>
+          <t>ايپچه بئس</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>بمان</t>
+          <t>صبر کن</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>امشب را در خانه ما بمان</t>
+          <t>کمی صبر کن</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>بئس</t>
+          <t>بئگان</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ايپچه بئس</t>
+          <t>هۊيأ بئگان</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>صبر کن</t>
+          <t>بیفکن</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>کمی صبر کن</t>
+          <t>همان‌جا بیفکن</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>بئگان</t>
+          <t>باتم</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>هۊيأ بئگان</t>
+          <t>آخربسر خۊ باتمأ فأرسأ</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>بیفکن</t>
+          <t>سزای عمل</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>همان‌جا بیفکن</t>
+          <t>او در انتها به سزای عملش رسید</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>باتم</t>
+          <t>بار بامؤئيد</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>آخربسر خۊ باتمأ فأرسأ</t>
+          <t>گيلکان نترس بار بامؤئيد</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>سزای عمل</t>
+          <t>تربیت شده‌اند</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>او در انتها به سزای عملش رسید</t>
+          <t>گیلک‌ها شجاع تربیت شده‌اند</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>بار بامؤئيد</t>
+          <t>باش</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>گيلکان نترس بار بامؤئيد</t>
+          <t>خۊ پيله برارأ باشه</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>تربیت شده‌اند</t>
+          <t>پیروز</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>گیلک‌ها شجاع تربیت شده‌اند</t>
+          <t>بر برادر بزرگ‌اش پیروز است</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>باش</t>
+          <t>باقي بمأنسته</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>خۊ پيله برارأ باشه</t>
+          <t>أن ٚ باقي بمانسته  ٰ چي بۊکۊنم؟</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>پیروز</t>
+          <t>باقى‌مانده</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>بر برادر بزرگ‌اش پیروز است</t>
+          <t>باقى‌مانده این را چه کنم؟</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>باقي بمأنسته</t>
+          <t>بال</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>أن ٚ باقي بمانسته ٰ چي بۊکۊنم؟</t>
+          <t>مي بالأ بيگير</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>باقى‌مانده</t>
+          <t>دست</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>باقى‌مانده این را چه کنم؟</t>
+          <t>دستم را بگیر</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>بال</t>
+          <t>بال زئن</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>مي بالأ بيگير</t>
+          <t>أن ٚ پئر أنأ بال بزه</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>دست</t>
+          <t>حمایت کردن</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>دستم را بگیر</t>
+          <t>پدرش از او حمایت کرد</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>بال زئن</t>
+          <t>بالاخا</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>أن ٚ پئر أنأ بال بزه</t>
+          <t>أمي بالاخا ويريشته</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>حمایت کردن</t>
+          <t>هواخواه</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>پدرش از او حمایت کرد</t>
+          <t>به هواخواهى ما برخاست</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>بالاخا</t>
+          <t>بامؤخته</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>أمي بالاخا ويريشته</t>
+          <t>بامؤخته آدمأ همه دۊس دأريدي</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>هواخواه</t>
+          <t>با ادب</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>به هواخواهى ما برخاست</t>
+          <t>آدم با ادب را همه دوست دارند</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>بامؤخته</t>
+          <t>بامؤختي</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>بامؤخته آدمأ همه دۊس دأريدي</t>
+          <t>اۊشاني کي بۊگؤفتمه بامؤختي؟</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>با ادب</t>
+          <t>یاد گرفتی</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>آدم با ادب را همه دوست دارند</t>
+          <t>آن‌هایى که گفتم را یاد گرفتى؟</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>بامؤختي</t>
+          <t>ببه</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>اۊشاني کي بۊگؤفتمه بامؤختي؟</t>
+          <t>أگه أتؤ ببه</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>یاد گرفتی</t>
+          <t>باشد</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>آن‌هایى که گفتم را یاد گرفتى؟</t>
+          <t>اگر چنین باشد</t>
         </is>
       </c>
     </row>
@@ -2892,721 +2892,721 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>أگه أتؤ ببه</t>
+          <t>من گب خبربري نۊکۊنم هرچي خأيه ببه بدأ ببه</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>باشد</t>
+          <t>بشود</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>اگر چنین باشد</t>
+          <t>من خبرچینى نمى‌کنم هرچه مى‌خواهد بشود بگذار بشود</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ببه</t>
+          <t>بتپسته</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>من گب خبربري نۊکۊنم هرچي خأيه ببه بدأ ببه</t>
+          <t>يخچال أسباب ٚ جأ بتپسته-يه</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>بشود</t>
+          <t>پر</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>من خبرچینى نمى‌کنم هرچه مى‌خواهد بشود بگذار بشود</t>
+          <t>یخچال پر از وسایل است</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>بتپسته</t>
+          <t>بج</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>يخچال أسباب ٚ جأ بتپسته-يه</t>
+          <t>ايمسال بج گيرانأ بؤسته</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>پر</t>
+          <t>برنج</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>یخچال پر از وسایل است</t>
+          <t>امسال برنج گران شده است</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>بج</t>
+          <t>بجار</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ايمسال بج گيرانأ بؤسته</t>
+          <t>أگه کاري نۊکۊنيم أمي بجاران همه دس جه شيدي</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>برنج</t>
+          <t>شالیزار</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>امسال برنج گران شده است</t>
+          <t>اگر کارى نکنیم تمام شالیزارهاى‌مان  از دست مى‌روند</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>بجار</t>
+          <t>بجارکار</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>أگه کاري نۊکۊنيم أمي بجاران همه دس جه شيدي</t>
+          <t>بجارکار کۊدن دره</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>شالیزار</t>
+          <t>کشاورزی (در شالیزار)</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>اگر کارى نکنیم تمام شالیزارهاى‌مان  از دست مى‌روند</t>
+          <t>در شالیزار کشاورزی مى‌کند</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>بجارکار</t>
+          <t>بجاوسته</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>بجارکار کۊدن دره</t>
+          <t>کي خۊ بجاوسته آدامسأ تاودأ خيابان ٚ دۊرۊن؟</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>کشاورزی (در شالیزار)</t>
+          <t>جویده</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>در شالیزار کشاورزی مى‌کند</t>
+          <t>چه کسى آدامس جویده‌اش را در خیابان انداخت؟</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>بجاوسته</t>
+          <t>بجسته</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>کي خۊ بجاوسته آدامسأ تاودأ خيابان ٚ دۊرۊن؟</t>
+          <t>مي دس ٚ رگ بجسته</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>جویده</t>
+          <t>برجسته</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>چه کسى آدامس جویده‌اش را در خیابان انداخت؟</t>
+          <t>رگ دستم برجسته شد</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>بجسته</t>
+          <t>بخألي</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>مي دس ٚ رگ بجسته</t>
+          <t>بخألي آخري سال ببه</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>برجسته</t>
+          <t>به گمانم</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>رگ دستم برجسته شد</t>
+          <t>به گمانم سال آخر باشد</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>بخألي</t>
+          <t>بدأ</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>بخألي آخري سال ببه</t>
+          <t>بدأ بيدينم چي تأنم بۊکۊنم</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>به گمانم</t>
+          <t>بگذار</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>به گمانم سال آخر باشد</t>
+          <t>بگذار ببینم چه مى‌توانم بکنم</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>بدأ</t>
+          <t>بدگيل</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>بدأ بيدينم چي تأنم بۊکۊنم</t>
+          <t>أ ويلایان چندي بدگيل ايسيد</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>بگذار</t>
+          <t>زشت</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>بگذار ببینم چه مى‌توانم بکنم</t>
+          <t>این ویلاها چقدر زشت هستند</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>بدگيل</t>
+          <t>برأر</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>أ ويلایان چندي بدگيل ايسيد</t>
+          <t>مي برار بۊشؤ ايجباري</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>زشت</t>
+          <t>برادر</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>این ویلاها چقدر زشت هستند</t>
+          <t>برادرم به سربازی رفته است</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>برأر</t>
+          <t>برار زن</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>مي برار بۊشؤ ايجباري</t>
+          <t>أفشين ٚ برارزن مي ريفئقه</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>برادر</t>
+          <t>زن برادر</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>برادرم به سربازی رفته است</t>
+          <t>زن برادر افشین با من دوست است</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>برار زن</t>
+          <t>برارزا</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>أفشين ٚ برارزن مي ريفئقه</t>
+          <t>مي برارزا بۊشؤ مٚدٚرسه</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>زن برادر</t>
+          <t>برادرزاده</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>زن برادر افشین با من دوست است</t>
+          <t>برادرزاده‌ام به مدرسه رفته است</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>برارزا</t>
+          <t>بردن</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>مي برارزا بۊشؤ مٚدٚرسه</t>
+          <t>تقي زن ببرده</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>برادرزاده</t>
+          <t>ازدواج (با زن)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>برادرزاده‌ام به مدرسه رفته است</t>
+          <t>تقى زن گرفته است</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>بردن</t>
+          <t>برسه</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>تقي زن ببرده</t>
+          <t>أ خۊرمالۊئان برسه</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>ازدواج (با زن)</t>
+          <t>پخته</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>تقى زن گرفته است</t>
+          <t>این خرمالوها پخته است</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>برسه</t>
+          <t>بزن بزن</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>أ خۊرمالۊئان برسه</t>
+          <t>ديرۊ أمي کۊچه سر بزن بزن بۊ</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>پخته</t>
+          <t>درگیرى</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>این خرمالوها پخته است</t>
+          <t>دیروز سر کوچه ما درگیرى بود</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>بزن بزن</t>
+          <t>بسته</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ديرۊ أمي کۊچه سر بزن بزن بۊ</t>
+          <t>بسته کۊني؟</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>درگیرى</t>
+          <t>شرط</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>دیروز سر کوچه ما درگیرى بود</t>
+          <t>شرط مى‌بندى؟</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>بسته</t>
+          <t>بسر تأودأ</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>بسته کۊني؟</t>
+          <t>مأمد مرأ بسر تأودأ بشم بانک</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>شرط</t>
+          <t>یادآورى کرد</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>شرط مى‌بندى؟</t>
+          <t>محمد به من یادآورى کرد به بانک بروم</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>بسر تأودأ</t>
+          <t>بسر دکفتم</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>مأمد مرأ بسر تأودأ بشم بانک</t>
+          <t>بسر دکفتم ايمسال بشم دانشگا</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>یادآورى کرد</t>
+          <t>تصمیم گرفتم</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>محمد به من یادآورى کرد به بانک بروم</t>
+          <t>تصمیم گرفتم امسال به دانشگاه بروم</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>بسر دکفتم</t>
+          <t>بسچي</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>بسر دکفتم ايمسال بشم دانشگا</t>
+          <t>بسچي کي أيم</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>تصمیم گرفتم</t>
+          <t>به‌طور قطع و یقین</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>تصمیم گرفتم امسال به دانشگاه بروم</t>
+          <t>به‌طور قطع و یقین مى‌آیم</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>بسچي</t>
+          <t>بشکفت</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>بسچي کي أيم</t>
+          <t>ورف ٚ سينگيني جأ أ دار بشکفت</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>به‌طور قطع و یقین</t>
+          <t>شکست</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>به‌طور قطع و یقین مى‌آیم</t>
+          <t>این درخت از سنگینی برف شکست</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>بشکفت</t>
+          <t>بل</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ورف ٚ سينگيني جأ أ دار بشکفت</t>
+          <t>أن ٚ بل بل ٚ گۊشأ فأندر</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>شکست</t>
+          <t>پهن و درشت</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>این درخت از سنگینی برف شکست</t>
+          <t>گوش‌های پهن و درشت‌اش را نگاه کن</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>بل</t>
+          <t>بمأنستم</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>أن ٚ بل بل ٚ گۊشأ فأندر</t>
+          <t>دئه بمأنستم</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>پهن و درشت</t>
+          <t>از پا افتادنم</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>گوش‌های پهن و درشت‌اش را نگاه کن</t>
+          <t>دیگر از پا افتادم</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>بمأنستم</t>
+          <t>بمأنسته</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>دئه بمأنستم</t>
+          <t>أ نان بمانسته-يه</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>از پا افتادنم</t>
+          <t>بیات</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>دیگر از پا افتادم</t>
+          <t>این نان بیات است</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>بمأنسته</t>
+          <t>بمرده</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>أ نان بمانسته-يه</t>
+          <t>کؤرؤنا وأسي دأني چن نفر بمرده؟</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>بیات</t>
+          <t>مرده</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>این نان بیات است</t>
+          <t>به خاطر کرونا می‌دانی چند نفر مرده است؟</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>بمرده</t>
+          <t>بنأ اۊسان</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>کؤرؤنا وأسي دأني چن نفر بمرده؟</t>
+          <t>آدم وا خۊ بنأ اۊسانأ بدأنه</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>مرده</t>
+          <t>راه و روش زندگى</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>به خاطر کرونا می‌دانی چند نفر مرده است؟</t>
+          <t>آدم باید راه و روش زندگى خودش را بداند</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>بنأ اۊسان</t>
+          <t>بندام</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>آدم وا خۊ بنأ اۊسانأ بدأنه</t>
+          <t>بندام ٚ آدم ٚ مرأ نوأسي نيشتن</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>راه و روش زندگى</t>
+          <t>بدنام</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>آدم باید راه و روش زندگى خودش را بداند</t>
+          <t>با آدم بدنام نباید ارتباط داشت</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>بندام</t>
+          <t>بنماسته</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>بندام ٚ آدم ٚ مرأ نوأسي نيشتن</t>
+          <t>خؤرأ أمرأ بنماسته</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>بدنام</t>
+          <t>نشان داد</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>با آدم بدنام نباید ارتباط داشت</t>
+          <t>خودش را به ما نشان داد</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>بنماسته</t>
+          <t>بنه</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>خؤرأ أمرأ بنماسته</t>
+          <t>تي ماشينأ هأيأ بنه</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>نشان داد</t>
+          <t>بگذار</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>خودش را به ما نشان داد</t>
+          <t>ماشین‌ات را همین‌جا بگذار</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>بنه</t>
+          <t>به</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>تي ماشينأ هأيأ بنه</t>
+          <t>أ راديؤ چأکۊده به؟</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>بگذار</t>
+          <t>مى‌شود</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>ماشین‌ات را همین‌جا بگذار</t>
+          <t>این رادیو درست مى‌شود؟</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>به</t>
+          <t>به زرف</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>أ راديؤ چأکۊده به؟</t>
+          <t>پئله-يأ به زرف بزه زيمين بشکنه</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>مى‌شود</t>
+          <t>محکم</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>این رادیو درست مى‌شود؟</t>
+          <t>نعلبکى را محکم به زمین زد شکست</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>به زرف</t>
+          <t>به فسکأ دأ</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>پئله-يأ به زرف بزه زيمين بشکنه</t>
+          <t>أمرأ به فسکأ دأ</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>محکم</t>
+          <t>لو داد</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>نعلبکى را محکم به زمین زد شکست</t>
+          <t>ما را لو داد</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>به فسکأ دأ</t>
+          <t>بي</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>أمرأ به فسکأ دأ</t>
+          <t>تۊ ناصر ٚ أمرأ بي</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>لو داد</t>
+          <t>بودى</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>ما را لو داد</t>
+          <t>تو با ناصر بودى</t>
         </is>
       </c>
     </row>
@@ -3618,501 +3618,501 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>تۊ ناصر ٚ أمرأ بي</t>
+          <t>مي أمرأ ريفئقأ بي؟</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>بودى</t>
+          <t>مى‌شوى</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>تو با ناصر بودى</t>
+          <t>با من دوست مى‌شوی؟</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>بي</t>
+          <t>بي شناق</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>مي أمرأ ريفئقأ بي؟</t>
+          <t>بعضي-يان پۊر بي شناقيد</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>مى‌شوى</t>
+          <t>حق نشناس</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>با من دوست مى‌شوی؟</t>
+          <t>بعضى‌ها خیلی حق نشناس هستند</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>بي شناق</t>
+          <t>بي پا</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>بعضي-يان پۊر بي شناقيد</t>
+          <t>گيلان ٚ بجاران همه بي پا بؤستن دره</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>حق نشناس</t>
+          <t>نابود</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>بعضى‌ها خیلی حق نشناس هستند</t>
+          <t>تمام شالیزارهاى گیلان دارد نابود مى‌شود</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>بي پا</t>
+          <t>بي پۊشت</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>گيلان ٚ بجاران همه بي پا بؤستن دره</t>
+          <t>خۊدا بۊکۊنه هي کس بي پۊشت نبه</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>نابود</t>
+          <t>تنها</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>تمام شالیزارهاى گیلان دارد نابود مى‌شود</t>
+          <t>خدا کند هیچ کس تنها نباشد</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>بي پۊشت</t>
+          <t>بي چنگ ؤ مۊشت</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>خۊدا بۊکۊنه هي کس بي پۊشت نبه</t>
+          <t>آدم نوأ بي چنگ ؤ مۊشت ببه</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>تنها</t>
+          <t>بى‌عرضه</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>خدا کند هیچ کس تنها نباشد</t>
+          <t>آدم نباید بى‌عرضه باشد</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>بي چنگ ؤ مۊشت</t>
+          <t>بياره</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>آدم نوأ بي چنگ ؤ مۊشت ببه</t>
+          <t>هرکي وا بياره خۊ گبأ بزنه</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>بى‌عرضه</t>
+          <t>جرأت کند</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>آدم نباید بى‌عرضه باشد</t>
+          <t>هرکس باید جرأت کند سخن خود را بگوید</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>بياره</t>
+          <t>بيافتي</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>هرکي وا بياره خۊ گبأ بزنه</t>
+          <t>وأمج ولکي بيافتي</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>جرأت کند</t>
+          <t>پیدا کردی</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>هرکس باید جرأت کند سخن خود را بگوید</t>
+          <t>جستجو کن شاید پیدا کردى</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>بيافتي</t>
+          <t>بيبيشته</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>وأمج ولکي بيافتي</t>
+          <t>بيبيشته بج خأيم</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>پیدا کردی</t>
+          <t>سرخ شده</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>جستجو کن شاید پیدا کردى</t>
+          <t>برنج سرخ شده مى‌خواهم</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>بيبيشته</t>
+          <t>بيجير</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>بيبيشته بج خأيم</t>
+          <t>بيأ بيجير</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>سرخ شده</t>
+          <t>پایین</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>برنج سرخ شده مى‌خواهم</t>
+          <t>بیا پایین</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>بيجير</t>
+          <t>بيرۊن</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>بيأ بيجير</t>
+          <t>بۊشۊ بيرۊن</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>پایین</t>
+          <t>بیرون</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>بیا پایین</t>
+          <t>برو بیرون</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>بيرۊن</t>
+          <t>بيسپاردم</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>بۊشۊ بيرۊن</t>
+          <t>مرجانأ بيسپاردم</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>بیرون</t>
+          <t>سفارش کردم</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>برو بیرون</t>
+          <t>به مرجان سفارش کردم</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>بيسپاردم</t>
+          <t>بينا کۊده</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>مرجانأ بيسپاردم</t>
+          <t>سعيد ديرۊ تا هسأ بينا کۊده درز خأندن</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>سفارش کردم</t>
+          <t>شروع کرد</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>به مرجان سفارش کردم</t>
+          <t>سعید از دیروز تا حالا شروع کرده درس بخواند</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>بينا کۊده</t>
+          <t>بينيش</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>سعيد ديرۊ تا هسأ بينا کۊده درز خأندن</t>
+          <t>أيأ بينيش</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>شروع کرد</t>
+          <t>بنشین</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>سعید از دیروز تا حالا شروع کرده درس بخواند</t>
+          <t>اینجا بنشین</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>بينيش</t>
+          <t>بينيويشته-کس</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>أيأ بينيش</t>
+          <t>أ کيتاب ٚ بينيويشته-کس کيسه؟</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>بنشین</t>
+          <t>نویسنده</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>اینجا بنشین</t>
+          <t>نویسنده این کتاب چه کسى است؟</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>بينيويشته-کس</t>
+          <t>بيچه-ئي</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>أ کيتاب ٚ بينيويشته-کس کيسه؟</t>
+          <t>اۊ کۊنۊسأ بيچه-ئي؟</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>نویسنده</t>
+          <t>چیدی</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>نویسنده این کتاب چه کسى است؟</t>
+          <t>آن ازگیل را چیدى؟</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>بيچه-ئي</t>
+          <t>بيگيفت</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>اۊ کۊنۊسأ بيچه-ئي؟</t>
+          <t>مي پۊلأ بيگيفت</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>چیدی</t>
+          <t>گرفت</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>آن ازگیل را چیدى؟</t>
+          <t>پولم را گرفت</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>بيگيفت</t>
+          <t>بٚسٚر</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>مي پۊلأ بيگيفت</t>
+          <t>چار ما بسر وا بشم پاریس</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>گرفت</t>
+          <t>در میان</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>پولم را گرفت</t>
+          <t>چهار ماه در میان باید به پاریس بروم</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>بٚسٚر</t>
+          <t>بچمسته</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>چار ما بسر وا بشم پاریس</t>
+          <t>أنقد بجارکار بۊکۊدد أشان ٚ کمر بچمسته دأره</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>در میان</t>
+          <t>خمیده</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>چهار ماه در میان باید به پاریس بروم</t>
+          <t>آن‌قدر در شالیزارها کار کرده‌اند کمرشان خمیده شده است</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>بچمسته</t>
+          <t>بچنگأ دأ</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>أنقد بجارکار بۊکۊدد أشان ٚ کمر بچمسته دأره</t>
+          <t>خۊ پۊلانأ همهˈ بچنگأ دأ</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>خمیده</t>
+          <t>از دست داد</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>آن‌قدر در شالیزارها کار کرده‌اند کمرشان خمیده شده است</t>
+          <t>تمام پول‌هایش را از دست داد</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>بچنگأ دأ</t>
+          <t>بچکسته</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>خۊ پۊلانأ همهˈ بچنگأ دأ</t>
+          <t>کارن بچکسته فني کاران ٚ ره</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>از دست داد</t>
+          <t>شایسته</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>تمام پول‌هایش را از دست داد</t>
+          <t>کارن براى کارهاى فنى شایسته است</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>بچکسته</t>
+          <t>بچۊک</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>کارن بچکسته فني کاران ٚ ره</t>
+          <t>وحيدأ بيدئم بچۊک نيشته بۊ</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>شایسته</t>
+          <t>چمباتمه</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>کارن براى کارهاى فنى شایسته است</t>
+          <t>وحید را دیدم چمباتمه نشسته بود</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>بچۊک</t>
+          <t>بکأشته</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>وحيدأ بيدئم بچۊک نيشته بۊ</t>
+          <t>أ گۊلانأ حسن بکأشته</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>چمباتمه</t>
+          <t>کاشته</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>وحید را دیدم چمباتمه نشسته بود</t>
+          <t>این گل‌ها را حسن کاشته</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>بکأشته</t>
+          <t>بکشه-ئي</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>أ گۊلانأ حسن بکأشته</t>
+          <t>چي بکشه-ئي؟</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>کاشته</t>
+          <t>رسم کردی</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>این گل‌ها را حسن کاشته</t>
+          <t>چه چیزى رسم کردى؟</t>
         </is>
       </c>
     </row>
@@ -4124,743 +4124,743 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>چي بکشه-ئي؟</t>
+          <t>أشانأ بکشه-ئي</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>رسم کردی</t>
+          <t>وزن کردی</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>چه چیزى رسم کردى؟</t>
+          <t>این‌ها را وزن کردى</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>بکشه-ئي</t>
+          <t>بکفت</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>أشانأ بکشه-ئي</t>
+          <t>زأی دار ٚ جه بکفت</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>وزن کردی</t>
+          <t>افتاد</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>این‌ها را وزن کردى</t>
+          <t>بچه از درخت افتاد</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>بکفت</t>
+          <t>بکفته راشي</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>زأی دار ٚ جه بکفت</t>
+          <t>أرأ شؤن نوأ بکفته راشي-يه</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>افتاد</t>
+          <t>جاده متروکه</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>بچه از درخت افتاد</t>
+          <t>از این راه نرو جاده متروکه است</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>بکفته راشي</t>
+          <t>بگردستيد</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>أرأ شؤن نوأ بکفته راشي-يه</t>
+          <t>أول أمرأ بگردستيد</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>جاده متروکه</t>
+          <t>بازرسى کردند</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>از این راه نرو جاده متروکه است</t>
+          <t>ابتدا ما را بازرسى کردند</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>بگردستيد</t>
+          <t>بگشت</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>أول أمرأ بگردستيد</t>
+          <t>نأنم چي مرأ بگشت</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>بازرسى کردند</t>
+          <t>نیش زد</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>ابتدا ما را بازرسى کردند</t>
+          <t>نمى‌دانم چه چیزى مرا نیش زد</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>بگشت</t>
+          <t>بگنسته</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>نأنم چي مرأ بگشت</t>
+          <t>آغۊز بگنسته مي سرأ</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>نیش زد</t>
+          <t>برخورد کرد</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>نمى‌دانم چه چیزى مرا نیش زد</t>
+          <t>گردو به سرم برخورد کرد</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>بگنسته</t>
+          <t>بگيلأ کۊن</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>آغۊز بگنسته مي سرأ</t>
+          <t>أ گبانأ هأيأ بگيلأ کۊن</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>برخورد کرد</t>
+          <t>دفن کن</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>گردو به سرم برخورد کرد</t>
+          <t>این حرف‌ها را همین‌جا دفن کن</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>بگيلأ کۊن</t>
+          <t>بۊ</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>أ گبانأ هأيأ بگيلأ کۊن</t>
+          <t>تي کار بۊ؟</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>دفن کن</t>
+          <t>بود</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>این حرف‌ها را همین‌جا دفن کن</t>
+          <t>کار تو بود؟</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>بۊ</t>
+          <t>بۊجؤر</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>تي کار بۊ؟</t>
+          <t>بۊشۊ بۊجؤر</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>بود</t>
+          <t>بالا</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>کار تو بود؟</t>
+          <t>برو بالا</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>بۊجؤر</t>
+          <t>بۊجؤر اۊتاق</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>بۊشۊ بۊجؤر</t>
+          <t>زاکانأ ببر بۊجؤر اۊتاق</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>بالا</t>
+          <t>اتاق بالا</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>برو بالا</t>
+          <t>بچه‌‌ها را به اتاق بالا ببر</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>بۊجؤر اۊتاق</t>
+          <t>بۊخۊس</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>زاکانأ ببر بۊجؤر اۊتاق</t>
+          <t>دئره، بۊشۊ بۊخۊس</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>اتاق بالا</t>
+          <t>بخواب</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>بچه‌‌ها را به اتاق بالا ببر</t>
+          <t>دیروقت است، برو بخواب</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>بۊخۊس</t>
+          <t>بۊدۊج</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>دئره، بۊشۊ بۊخۊس</t>
+          <t>تأني مي پرهنأ بۊدۊجي؟</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>بخواب</t>
+          <t>بدوز</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>دیروقت است، برو بخواب</t>
+          <t>می‌توانی پیراهنم را بدوزی؟</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>بۊدۊج</t>
+          <t>بۊدۊرۊن</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>تأني مي پرهنأ بۊدۊجي؟</t>
+          <t>بۊشۊ بۊدۊرۊن</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>بدوز</t>
+          <t>داخل</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>می‌توانی پیراهنم را بدوزی؟</t>
+          <t>برو داخل</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>بۊدۊرۊن</t>
+          <t>بۊرۊز</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>بۊشۊ بۊدۊرۊن</t>
+          <t>تي فسکأ بۊرۊز دأن نوأ</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>داخل</t>
+          <t>فاش</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>برو داخل</t>
+          <t>رازت را فاش نکن</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>بۊرۊز</t>
+          <t>بۊز</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>تي فسکأ بۊرۊز دأن نوأ</t>
+          <t>مي پا بۊز مرأ در کۊنه</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>فاش</t>
+          <t>پاشنه پا</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>رازت را فاش نکن</t>
+          <t>پاشنه پایم درد مى‌کند</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>بۊز</t>
+          <t>بۊسۊجانه</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>مي پا بۊز مرأ در کۊنه</t>
+          <t>غذايأ همهˈ بۊسۊجانه</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>پاشنه پا</t>
+          <t>سوزاند</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>پاشنه پایم درد مى‌کند</t>
+          <t>تمام غذا را سوزاند</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>بۊسۊجانه</t>
+          <t>بۊشؤستم</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>غذايأ همهˈ بۊسۊجانه</t>
+          <t>تي رختانأ بۊشؤستم</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>سوزاند</t>
+          <t>شستم</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>تمام غذا را سوزاند</t>
+          <t>لباس‌هایت را شستم</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>بۊشؤستم</t>
+          <t>بۊفۊرؤختم</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>تي رختانأ بۊشؤستم</t>
+          <t>مي گۊشي-يأ تازگي-يان بۊفرؤختم</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>شستم</t>
+          <t>فروختم</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>لباس‌هایت را شستم</t>
+          <t>گوشى‌ام را به‌تازگی فروختم</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>بۊفۊرؤختم</t>
+          <t>بۊچۊلکسته</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>مي گۊشي-يأ تازگي-يان بۊفرؤختم</t>
+          <t>أمي باغچه گۊلان بۊچۊلکسته</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>فروختم</t>
+          <t>پژمرده</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>گوشى‌ام را به‌تازگی فروختم</t>
+          <t>گل‌هاى باغچه ما پژمرده شد</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>بۊچۊلکسته</t>
+          <t>بۊک بۊکۊده</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>أمي باغچه گۊلان بۊچۊلکسته</t>
+          <t>ايمرۊ چي ره بۊک بۊکۊده-ئي؟</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>پژمرده</t>
+          <t>پکر</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>گل‌هاى باغچه ما پژمرده شد</t>
+          <t>براى چه امروز پکر هستى؟</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>بۊک بۊکۊده</t>
+          <t>بۊکۊشيد</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ايمرۊ چي ره بۊک بۊکۊده-ئي؟</t>
+          <t>أشان خأئيد همه  ٰ بۊکۊشيد</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>پکر</t>
+          <t>بکشند</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>براى چه امروز پکر هستى؟</t>
+          <t>ایشان می‌خواهند همه را بکشند</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>بۊکۊشيد</t>
+          <t>بۊگرؤختيم</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>أشان خأئيد همه ٰ بۊکۊشيد</t>
+          <t>صابخانه کي بامؤ أمان بۊگرؤختيم</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>بکشند</t>
+          <t>فرار کردیم</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>ایشان می‌خواهند همه را بکشند</t>
+          <t>صاحب‌خانه که آمد ما فرار کردیم</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>بۊگرؤختيم</t>
+          <t>بۊگۊ بيشتاو</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>صابخانه کي بامؤ أمان بۊگرؤختيم</t>
+          <t>شيمي بۊگۊ بيشتاوأ نيشتاوستم</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>فرار کردیم</t>
+          <t>گفتگو</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>صاحب‌خانه که آمد ما فرار کردیم</t>
+          <t>گفتگوى شما را نشنیدم</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>بۊگۊ بيشتاو</t>
+          <t>بۊگۊ مۊگۊ</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>شيمي بۊگۊ بيشتاوأ نيشتاوستم</t>
+          <t>مي دۊماغ خارش کۊنه بۊگۊ مۊگۊيه</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>گفتگو</t>
+          <t>غیبت</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>گفتگوى شما را نشنیدم</t>
+          <t>بینى‌ام مى‌خارد غیبت‌ام را مى‌کنند</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>بۊگۊ مۊگۊ</t>
+          <t>پئر</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>مي دۊماغ خارش کۊنه بۊگۊ مۊگۊيه</t>
+          <t>مي پئر بۊشؤ کار ٚ سر</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>غیبت</t>
+          <t>پدر</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>بینى‌ام مى‌خارد غیبت‌ام را مى‌کنند</t>
+          <t>پدرم سر کار رفت</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>پئر</t>
+          <t>پئر ؤ مأر</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>مي پئر بۊشؤ کار ٚ سر</t>
+          <t>مي پئر ؤ مأر بخانه نئسائيد</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>پدر</t>
+          <t>پدر و مادر</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>پدرم سر کار رفت</t>
+          <t>پدر و مادرم خانه نیستند</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>پئر ؤ مأر</t>
+          <t>پئر ٚ زن</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>مي پئر ؤ مأر بخانه نئسائيد</t>
+          <t>همه-تا پئر ٚ زنان کي بد ني-ئيد</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>پدر و مادر</t>
+          <t>نامادرى</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>پدر و مادرم خانه نیستند</t>
+          <t>تمام نامادرى‌ها که بد نیستند</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>پئر ٚ زن</t>
+          <t>پئله</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>همه-تا پئر ٚ زنان کي بد ني-ئيد</t>
+          <t>چائي-يأ دۊکۊن پئله دۊرۊن</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>نامادرى</t>
+          <t>نعلبکی</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>تمام نامادرى‌ها که بد نیستند</t>
+          <t>چای را درون نعلبکی بریز</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>پئله</t>
+          <t>پئنج</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>چائي-يأ دۊکۊن پئله دۊرۊن</t>
+          <t>پئنج تا نان خأيم</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>نعلبکی</t>
+          <t>پنج</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>چای را درون نعلبکی بریز</t>
+          <t>پنج عدد نان مى‌خواهم</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>پئنج</t>
+          <t>پئنجا</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>پئنج تا نان خأيم</t>
+          <t>زري-يم خۊ پئنجا ريالأ فأدأ</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>پنج</t>
+          <t>پنجاه</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>پنج عدد نان مى‌خواهم</t>
+          <t>زری هم پنجاه ریال‌اش را داد</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>پئنجا</t>
+          <t>پا تۊک</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>زري-يم خۊ پئنجا ريالأ فأدأ</t>
+          <t>تي پا تۊک ٚ سر بئس خانه دۊرۊنأ فأندر</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>پنجاه</t>
+          <t>نوک پا</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>زری هم پنجاه ریال‌اش را داد</t>
+          <t>روى نوک پایت بایست داخل خانه را نگاه کن</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>پا تۊک</t>
+          <t>پابرانده</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>تي پا تۊک ٚ سر بئس خانه دۊرۊنأ فأندر</t>
+          <t>پابرانده صارا شؤن نوأ</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>نوک پا</t>
+          <t>پابرهنه</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>روى نوک پایت بایست داخل خانه را نگاه کن</t>
+          <t>پابرهنه به حیاط نرو</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>پابرانده</t>
+          <t>پاخت</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>پابرانده صارا شؤن نوأ</t>
+          <t>مي دۊماغ پاخته</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>پابرهنه</t>
+          <t>پهن</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>پابرهنه به حیاط نرو</t>
+          <t>دماغ من پهن است</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>پاخت</t>
+          <t>پادۊش</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>مي دۊماغ پاخته</t>
+          <t>أشن پادۊش ٚ جأ کفش چأکۊنيد</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>پهن</t>
+          <t>چرم</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>دماغ من پهن است</t>
+          <t>آن‌ها از چرم کفش می‌سازند</t>
         </is>
       </c>
     </row>
@@ -5004,7 +5004,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>أمي مؤبل ٚ دسته ٰ پت بزه</t>
+          <t>أمي مؤبل ٚ دسته  ٰ پت بزه</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -6962,7 +6962,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>پارچهˈ همهˈ تۊرتۊره  ٰ کۊد</t>
+          <t>پارچهˈ همهˈ تۊرتۊره   ٰ کۊد</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -7358,7 +7358,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>تي وسيله ٰن کابينت ٚ جؤر نهأ</t>
+          <t>تي وسيله  ٰن کابينت ٚ جؤر نهأ</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -7666,7 +7666,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>خۊ وسيله ٰنأ جيجاماما کۊدن دره</t>
+          <t>خۊ وسيله  ٰنأ جيجاماما کۊدن دره</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -7803,7 +7803,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>در رفت (اعضای بدن)</t>
+          <t>در رفت</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>پارچه  ٰ چارکۊنج واوين</t>
+          <t>پارچه   ٰ چارکۊنج واوين</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -8568,7 +8568,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>چمچه ٰ بيدئي؟</t>
+          <t>چمچه  ٰ بيدئي؟</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -8617,12 +8617,12 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>چه‌قدر</t>
+          <t>چه قدر</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>خانۀ شما چه قدر دور است</t>
+          <t>خانه شما چه قدر دور است</t>
         </is>
       </c>
     </row>
@@ -8937,572 +8937,572 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>حأيوان</t>
+          <t>چۊچۊل</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>حأيوانانأ سربسر نهأن نوأ</t>
+          <t>چۊچۊل دار ٚ جأ جؤر شؤن دره</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>حیوان</t>
+          <t>مارمولک</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>حیوان‌ها را آزار و اذیت نکن</t>
+          <t>مارمولک در حال بالا رفتن از درخت است</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>حئيقت</t>
+          <t>حأيوان</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>حئيقت گي؟</t>
+          <t>حأيوانانأ سربسر نهأن نوأ</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>حقیقت</t>
+          <t>حیوان</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>حقیقت را مى‌گویی؟</t>
+          <t>حیوان‌ها را آزار و اذیت نکن</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>حق ٚ سأى</t>
+          <t>حئيقت</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>تي حق ٚ سأيأ بۊکۊن آخربسر چأکۊده به</t>
+          <t>حئيقت گي؟</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>تلاش</t>
+          <t>حقیقت</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>تلاش کن سرانجام درست مى‌شود</t>
+          <t>حقیقت را مى‌گویی؟</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>خألي</t>
+          <t>حق ٚ سأى</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>اۊنقد کار بۊکۊدم خألي بيس تۊمۊن مرأ فأدأ</t>
+          <t>تي حق ٚ سأيأ بۊکۊن آخربسر چأکۊده به</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>فقط</t>
+          <t>تلاش</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>آن قدر کار کردم فقط بیست تومان به من داد</t>
+          <t>تلاش کن سرانجام درست مى‌شود</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>خأندن</t>
+          <t>خألي</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>کيتاب خأندن درم</t>
+          <t>اۊنقد کار بۊکۊدم خألي بيس تۊمۊن مرأ فأدأ</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>حواندن</t>
+          <t>فقط</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>دارم کتاب می‌خوانم</t>
+          <t>آن قدر کار کردم فقط بیست تومان به من داد</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>خأيه</t>
+          <t>خأندن</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>کي خأيه بأيه؟</t>
+          <t>کيتاب خأندن درم</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>می‌خواهد</t>
+          <t>حواندن</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>چه کسى مى‌خواهد بیاید؟</t>
+          <t>دارم کتاب می‌خوانم</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>خؤرم</t>
+          <t>خأيه</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>علي خؤرم زأکه</t>
+          <t>کي خأيه بأيه؟</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>خوب</t>
+          <t>می‌خواهد</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>على بچه خوبى است</t>
+          <t>چه کسى مى‌خواهد بیاید؟</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>خؤرنه</t>
+          <t>خؤرم</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>أنقد خؤرنه کۊني کي خۊفتن نشأ</t>
+          <t>علي خؤرم زأکه</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>خروپف</t>
+          <t>خوب</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>آن قدر خروپف مى‌کنى که نمى‌شود خوابید</t>
+          <t>على بچه خوبى است</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>خؤره</t>
+          <t>خؤرنه</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>خؤره بامؤ</t>
+          <t>أنقد خؤرنه کۊني کي خۊفتن نشأ</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>خودش</t>
+          <t>خروپف</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>خودش آمد</t>
+          <t>آن قدر خروپف مى‌کنى که نمى‌شود خوابید</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>خؤره خؤره</t>
+          <t>خؤره</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>مي کيف ٚ بند خؤره خؤره بؤرسفت</t>
+          <t>خؤره بامؤ</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>خود به خود</t>
+          <t>خودش</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>بند کیفم خود به خود پاره شد</t>
+          <t>خودش آمد</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>خؤشگيل</t>
+          <t>خؤره خؤره</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>أ گۊل چندر خؤشگيله</t>
+          <t>مي کيف ٚ بند خؤره خؤره بؤرسفت</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>زیبا</t>
+          <t>خود به خود</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>این گل چه قدر زیباست</t>
+          <t>بند کیفم خود به خود پاره شد</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>خاج</t>
+          <t>خؤشگيل</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>ايتأ خاج هيندانه مرأ فأدن</t>
+          <t>أ گۊل چندر خؤشگيله</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>برشى از چیزى</t>
+          <t>زیبا</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>یک برش هندوانه به من بده</t>
+          <t>این گل چه قدر زیباست</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>خاخۊر</t>
+          <t>خاج</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>مي خاخۊر ٚ مرأ بۊشؤئيم رستۊران</t>
+          <t>ايتأ خاج هيندانه مرأ فأدن</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>خواهر</t>
+          <t>برشى از چیزى</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>با خواهرم به رستوران رفتیم</t>
+          <t>یک برش هندوانه به من بده</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>خاخۊرزا</t>
+          <t>خاخۊر</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>خاخۊرزا مي شين دانشجۊيه</t>
+          <t>مي خاخۊر ٚ مرأ بۊشؤئيم رستۊران</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>خواهرزاده</t>
+          <t>خواهر</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>خواهرزاده من دانشجو است</t>
+          <t>با خواهرم به رستوران رفتیم</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>خاش</t>
+          <t>خاخۊرزا</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>أ مائي پۊر خاش دأره</t>
+          <t>خاخۊرزا مي شين دانشجۊيه</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>استخوان</t>
+          <t>خواهرزاده</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>این ماهى استخوان زیاد دارد</t>
+          <t>خواهرزاده من دانشجو است</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>خاص ٚ بخت</t>
+          <t>خاش</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>حسۊد ٚ آدم خاص ٚ بخت نيبه</t>
+          <t>أ مائي پۊر خاش دأره</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>خوش‌بخت</t>
+          <t>استخوان</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>آدم حسود خوش‌بخت نمى‌شود</t>
+          <t>این ماهى استخوان زیاد دارد</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>خاطر</t>
+          <t>خاص ٚ بخت</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>مرأ خاطر نأيه</t>
+          <t>حسۊد ٚ آدم خاص ٚ بخت نيبه</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>یاد</t>
+          <t>خوش‌بخت</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>یادم نمى‌آید</t>
+          <t>آدم حسود خوش‌بخت نمى‌شود</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>خاطرخا</t>
+          <t>خاطر</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>أشان دۊتا خاطرخائي دأشتيد</t>
+          <t>مرأ خاطر نأيه</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>عاشق</t>
+          <t>یاد</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>این دو نفر عاشق هم بودند</t>
+          <t>یادم نمى‌آید</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>خال</t>
+          <t>خاطرخا</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>بپا خالانأ نشکني</t>
+          <t>أشان دۊتا خاطرخائي دأشتيد</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>شاخه</t>
+          <t>عاشق</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>مواظب باش شاخه‌ها را نشکنی</t>
+          <t>این دو نفر عاشق هم بودند</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>خاليواش</t>
+          <t>خال</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>خاليواش ٚ مرأ درار چأکۊنيدي</t>
+          <t>بپا خالانأ نشکني</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>مرزنگوش</t>
+          <t>شاخه</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>با مرزنگوش نمک سبز درست می‌کنند</t>
+          <t>مواظب باش شاخه‌ها را نشکنی</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>خبرأتر</t>
+          <t>خاليواش</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>چي خبرأتر؟</t>
+          <t>خاليواش ٚ مرأ درار چأکۊنيدي</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>خبر و احوال</t>
+          <t>مرزنگوش</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>چه خبر و احوال؟</t>
+          <t>با مرزنگوش نمک سبز درست می‌کنند</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>خبرأگير</t>
+          <t>خبرأتر</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>مؤسن ديرۊ بامؤبۊ تي خبرأگير</t>
+          <t>چي خبرأتر؟</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>سراغ گرفتن</t>
+          <t>خبر و احوال</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>محسن دیروز آمده بود و سراغ تو را می‌گرفت</t>
+          <t>چه خبر و احوال؟</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>خرابگي</t>
+          <t>خبرأگير</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>دۊمرتبه خرابگي بۊکۊدي؟</t>
+          <t>مؤسن ديرۊ بامؤبۊ تي خبرأگير</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>خراب‌کارى</t>
+          <t>سراغ گرفتن</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>دوباره خراب‌کارى کردى؟</t>
+          <t>محسن دیروز آمده بود و سراغ تو را می‌گرفت</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>خرت ٚ خشال</t>
+          <t>خرابگي</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>اۊ خرت ٚ خشالانأ فيشأن</t>
+          <t>دۊمرتبه خرابگي بۊکۊدي؟</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>وسایل بى‌ارزش</t>
+          <t>خراب‌کارى</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>آن وسایل بى‌ارزش را دور بیانداز</t>
+          <t>دوباره خراب‌کارى کردى؟</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>خسته</t>
+          <t>خرت ٚ خشال</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>تۊرفانأ خسته بکأشتي</t>
+          <t>اۊ خرت ٚ خشالانأ فيشأن</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>متراکم</t>
+          <t>وسایل بى‌ارزش</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>ترب‌ها را متراکم کاشتى</t>
+          <t>آن وسایل بى‌ارزش را دور بیانداز</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>خفت</t>
+          <t>خسته</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>مرأ خفتأ گيره</t>
+          <t>تۊرفانأ خسته بکأشتي</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>چندش</t>
+          <t>متراکم</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>چندش‌ام می‌شود</t>
+          <t>ترب‌ها را متراکم کاشتى</t>
         </is>
       </c>
     </row>
@@ -9514,655 +9514,655 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>دئه مي خفت بسر أمؤن دره</t>
+          <t>مرأ خفتأ گيره</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>تحمل</t>
+          <t>چندش</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>دیگر دارد تحمل‌ام تمام مى‌شود</t>
+          <t>چندش‌ام می‌شود</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>خفتي</t>
+          <t>خفت</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>خفتي آدمه</t>
+          <t>دئه مي خفت بسر أمؤن دره</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>کم تحمل</t>
+          <t>تحمل</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>آدم کم تحملى است</t>
+          <t>دیگر دارد تحمل‌ام تمام مى‌شود</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>خفيانگي</t>
+          <t>خفتي</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>خۊ کارانأ خفيانگي کۊنه</t>
+          <t>خفتي آدمه</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>پنهانى</t>
+          <t>کم تحمل</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>کارهایش را مخفیانه انجام مى‌دهد</t>
+          <t>آدم کم تحملى است</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>خٚرٚک</t>
+          <t>خفيانگي</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>أمي بجانأ خٚرٚکأ کۊده</t>
+          <t>خۊ کارانأ خفيانگي کۊنه</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>شپشک برنج</t>
+          <t>پنهانى</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>برنج‌هاى ما را شپشک زده است</t>
+          <t>کارهایش را مخفیانه انجام مى‌دهد</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>خکاره</t>
+          <t>خٚرٚک</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>ايتأ پيله خکاره بيهين</t>
+          <t>أمي بجانأ خٚرٚکأ کۊده</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>ماهی‌تابه</t>
+          <t>شپشک برنج</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>یک ماهی‌تابه بزرگ بخر</t>
+          <t>برنج‌هاى ما را شپشک زده است</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>خۊ</t>
+          <t>خکاره</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>هرکي خۊ ماشين ٚ مرأ بأيه</t>
+          <t>ايتأ پيله خکاره بيهين</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>خودش</t>
+          <t>ماهی‌تابه</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>هرکس با ماشین خودش بیاید</t>
+          <t>یک ماهی‌تابه بزرگ بخر</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>خۊج</t>
+          <t>خۊ</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>خۊج خۊري؟</t>
+          <t>هرکي خۊ ماشين ٚ مرأ بأيه</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>گلابی وحشی</t>
+          <t>خودش</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>گلابی وحشی می‌خوری؟</t>
+          <t>هرکس با ماشین خودش بیاید</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>خۊرانئن</t>
+          <t>خۊج</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>زاکأ دوا خۊرانئن درم</t>
+          <t>خۊج خۊري؟</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>خوراندن</t>
+          <t>گلابی وحشی</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>به بچه دارو مى‌خورانم</t>
+          <t>گلابی وحشی می‌خوری؟</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>خۊرکأ</t>
+          <t>خۊرانئن</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>خۊرکأ دامان ٚ مئن زيويسته</t>
+          <t>زاکأ دوا خۊرانئن درم</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>جوجه‌تیغی</t>
+          <t>خوراندن</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>جوجه‌تیغی در جنگل زندگی می‌کند</t>
+          <t>به بچه دارو مى‌خورانم</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>خۊس</t>
+          <t>خۊرکأ</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>نأمم چي ره ايمرۊ خۊس کۊنمه</t>
+          <t>خۊرکأ دامان ٚ مئن زيويسته</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>سرفه</t>
+          <t>جوجه‌تیغی</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>نمى‌دانم براى چه امروز سرفه مى‌کنم</t>
+          <t>جوجه‌تیغی در جنگل زندگی می‌کند</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>خۊسانه</t>
+          <t>خۊس</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>مهين کرأ خۊ زاکأ خۊسانه</t>
+          <t>نأمم چي ره ايمرۊ خۊس کۊنمه</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>می‌خواباند</t>
+          <t>سرفه</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>مهین دارد بچه‌اش را مى‌خواباند</t>
+          <t>نمى‌دانم براى چه امروز سرفه مى‌کنم</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>خۊسه</t>
+          <t>خۊسانه</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>زأک ٚ ره لالائي بيگي زۊتر خۊسه</t>
+          <t>مهين کرأ خۊ زاکأ خۊسانه</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>مى‌خوابد</t>
+          <t>می‌خواباند</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>براى بچه لالایى بگویى زودتر مى‌خوابد</t>
+          <t>مهین دارد بچه‌اش را مى‌خواباند</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>خۊشأدم</t>
+          <t>خۊسه</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>أيأ بيأ ترأ خۊشأدم</t>
+          <t>زأک ٚ ره لالائي بيگي زۊتر خۊسه</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>ببوسم</t>
+          <t>مى‌خوابد</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>این‌جا بیا تو را ببوسم</t>
+          <t>براى بچه لالایى بگویى زودتر مى‌خوابد</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>خۊشانه</t>
+          <t>خۊشأدم</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>أمان أشانأ وأده نيگيفته بيم، خۊشانه بامؤبيد</t>
+          <t>أيأ بيأ ترأ خۊشأدم</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>خودسرانه</t>
+          <t>ببوسم</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>ما آن‌ها را دعوت نکرده بودیم، خودسرانه آمده بودند</t>
+          <t>این‌جا بیا تو را ببوسم</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>خۊشک</t>
+          <t>خۊشانه</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>سلان همه خۊشکأ بؤستده</t>
+          <t>أمان أشانأ وأده نيگيفته بيم، خۊشانه بامؤبيد</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>خشک</t>
+          <t>خودسرانه</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>آبگیرها همه خشک شده‌اند</t>
+          <t>ما آن‌ها را دعوت نکرده بودیم، خودسرانه آمده بودند</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>خۊله</t>
+          <t>خۊشک</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>گرزه بۊشؤ خۊله مئن</t>
+          <t>سلان همه خۊشکأ بؤستده</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>سوراخ</t>
+          <t>خشک</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>موش درون سوراخ رفت</t>
+          <t>آبگیرها همه خشک شده‌اند</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>خۊلي</t>
+          <t>خۊله</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>خۊلي-يانأ بيچه-ئي؟</t>
+          <t>گرزه بۊشؤ خۊله مئن</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>گوجه‌سبز</t>
+          <t>سوراخ</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>گوجه‌سبزها را چیدی؟</t>
+          <t>موش درون سوراخ رفت</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>خۊمه</t>
+          <t>خۊلي</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>حجحجي أمي هره سر خۊمه بنأ</t>
+          <t>خۊلي-يانأ بيچه-ئي؟</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>لانه</t>
+          <t>گوجه‌سبز</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>پرستو بالاى ایوان خانه ما لانه گذاشته است</t>
+          <t>گوجه‌سبزها را چیدی؟</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>خۊن ديمير</t>
+          <t>خۊمه</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>مي پا أنگۊشت خۊن ديمير بؤبؤسته</t>
+          <t>حجحجي أمي هره سر خۊمه بنأ</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>خون مرده</t>
+          <t>لانه</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>انگشت پای من خون مرده شده است</t>
+          <t>پرستو بالاى ایوان خانه ما لانه گذاشته است</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>خۊچک</t>
+          <t>خۊن ديمير</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>أ آشتالۊ خۊچکه</t>
+          <t>مي پا أنگۊشت خۊن ديمير بؤبؤسته</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>هسته جدا</t>
+          <t>خون مرده</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>این هلو هسته جدا است</t>
+          <t>انگشت پای من خون مرده شده است</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>دأني</t>
+          <t>خۊچک</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>دأني تي برار کؤيأ ايسأ؟</t>
+          <t>أ آشتالۊ خۊچکه</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>می‌دانی</t>
+          <t>هسته جدا</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>می‌دانی برادرت کجا است؟</t>
+          <t>این هلو هسته جدا است</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>دؤجين</t>
+          <t>دأني</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>ته ره دؤجين بۊکۊن</t>
+          <t>دأني تي برار کؤيأ ايسأ؟</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>انتخاب</t>
+          <t>می‌دانی</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>برای خودت انتخاب کن</t>
+          <t>می‌دانی برادرت کجا است؟</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>دؤر ٚ شر</t>
+          <t>دؤجين</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>اي نفر کرأ دؤر ٚ شر ٚ جأ أيه</t>
+          <t>ته ره دؤجين بۊکۊن</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>دور دست</t>
+          <t>انتخاب</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>یک نفر دارد از دور دست مى‌آید</t>
+          <t>برای خودت انتخاب کن</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>دؤرسفت</t>
+          <t>دؤر ٚ شر</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>مي زيبيل ٚ تان دؤرسفت</t>
+          <t>اي نفر کرأ دؤر ٚ شر ٚ جأ أيه</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>پاره شد</t>
+          <t>دور دست</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>کف زنبیلم پاره شد</t>
+          <t>یک نفر دارد از دور دست مى‌آید</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>دؤوانئن</t>
+          <t>دؤرسفت</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>صؤب تا هسأ مرأ دؤوانئن دره</t>
+          <t>مي زيبيل ٚ تان دؤرسفت</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>دواندن</t>
+          <t>پاره شد</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>از صبح تا حالا دارند من را سر مى‌دواند</t>
+          <t>کف زنبیلم پاره شد</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>دؤوستن</t>
+          <t>دؤوانئن</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>کرأ دؤوم</t>
+          <t>صؤب تا هسأ مرأ دؤوانئن دره</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>دویدن</t>
+          <t>دواندن</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>دارم مى‌دوم</t>
+          <t>از صبح تا حالا دارند من را سر مى‌دواند</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>دؤککؤ</t>
+          <t>دؤوستن</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>دؤککؤ بۊخۊردم</t>
+          <t>کرأ دؤوم</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>تعجب</t>
+          <t>دویدن</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>تعجب کردم</t>
+          <t>دارم مى‌دوم</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>دئر</t>
+          <t>دؤککؤ</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>مي مٚدٚرسه دئرأ بؤ</t>
+          <t>دؤککؤ بۊخۊردم</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>دیر</t>
+          <t>تعجب</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>مدرسه‌ام دیر شد</t>
+          <t>تعجب کردم</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>دئن</t>
+          <t>دئر</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>چي دئن دري؟</t>
+          <t>مي مٚدٚرسه دئرأ بؤ</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>دیدن</t>
+          <t>دیر</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>چه داری می‌بینی؟</t>
+          <t>مدرسه‌ام دیر شد</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>دئه</t>
+          <t>دئن</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>ايتأ دئه نان مرأ فأدن</t>
+          <t>چي دئن دري؟</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>دیگر</t>
+          <t>دیدن</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>یک نان دیگر به من بده</t>
+          <t>چه داری می‌بینی؟</t>
         </is>
       </c>
     </row>
@@ -10174,7 +10174,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>من دئه بازي نۊکۊنم</t>
+          <t>ايتأ دئه نان مرأ فأدن</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -10184,51 +10184,51 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>من دیگر بازى نمى‌کنم</t>
+          <t>یک نان دیگر به من بده</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>داب</t>
+          <t>دئه</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>أن تازه دابه؟</t>
+          <t>من دئه بازي نۊکۊنم</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>روش</t>
+          <t>دیگر</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>این روش جدید است؟</t>
+          <t>من دیگر بازى نمى‌کنم</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>دار</t>
+          <t>داب</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>خۊشک ٚ دار هيمه ره خؤبه</t>
+          <t>أن تازه دابه؟</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>درخت</t>
+          <t>روش</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>درخت خشک برای هیزم خوب است</t>
+          <t>این روش جدید است؟</t>
         </is>
       </c>
     </row>
@@ -10240,7 +10240,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>أ دارانأ کي وأوه؟</t>
+          <t>خۊشک ٚ دار هيمه ره خؤبه</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -10250,7 +10250,7 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>این درخت‌ها را چه‌کسی برید؟</t>
+          <t>درخت خشک برای هیزم خوب است</t>
         </is>
       </c>
     </row>
@@ -10719,44 +10719,44 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>دس پرأ گيفتن</t>
+          <t>دس ٚ تان</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>أمرأ دس پرأ گيفتي؟</t>
+          <t>مي دس ٚ تان مرأ خارش کۊنه</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>مسخره کردن</t>
+          <t>کف دست</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>ما را مسخره مى‌کنى؟</t>
+          <t>کف دستم مى‌خارد</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>دس ٚ تان</t>
+          <t>دس پرأ گيفتن</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>مي دس ٚ تان مرأ خارش کۊنه</t>
+          <t>أمرأ دس پرأ گيفتي؟</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>کف دست</t>
+          <t>مسخره کردن</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>کف دستم مى‌خارد</t>
+          <t>ما را مسخره مى‌کنى؟</t>
         </is>
       </c>
     </row>
@@ -11252,7 +11252,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>ديرۊ شيمي کۊچه ٰ دٚوارستم</t>
+          <t>ديرۊ شيمي کۊچه  ٰ دٚوارستم</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -12770,7 +12770,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>تي وسيله ٰنأ بنه ميز ٚ سر</t>
+          <t>تي وسيله  ٰنأ بنه ميز ٚ سر</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -13298,7 +13298,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>سٚفره  ٰ بۊشؤستم</t>
+          <t>سٚفره   ٰ بۊشؤستم</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -15036,7 +15036,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>سٚفره  ٰ فلگان</t>
+          <t>سٚفره   ٰ فلگان</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -16246,7 +16246,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>بۊشۊ اۊ کلانه ٰ بأور</t>
+          <t>بۊشۊ اۊ کلانه  ٰ بأور</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -16334,7 +16334,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>بۊشۊ کله ٰ وأگيران</t>
+          <t>بۊشۊ کله  ٰ وأگيران</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -16928,7 +16928,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>جغله ٰ ببر گاره دۊرۊن بۊخۊسان</t>
+          <t>جغله  ٰ ببر گاره دۊرۊن بۊخۊسان</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
@@ -17984,7 +17984,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>اۊ لته ٰ مرأ فأدن ميزأ پأکۊنم</t>
+          <t>اۊ لته  ٰ مرأ فأدن ميزأ پأکۊنم</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
@@ -18050,7 +18050,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>لپه ٰ تأود</t>
+          <t>لپه  ٰ تأود</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
@@ -18248,7 +18248,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>مئوه ٰنأ بۊشؤستي؟</t>
+          <t>مئوه  ٰنأ بۊشؤستي؟</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
@@ -18771,88 +18771,88 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>مرد ٚ خاخۊرزا</t>
+          <t>مرد ٚ برار</t>
         </is>
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>مي مرد ٚ خاخۊرزا أمي خانه ايسأ</t>
+          <t>مي مرد ٚ برار ٚ خانه هأ کۊچه دۊرۊنه</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
         <is>
-          <t>خواهرزاده شوهر</t>
+          <t>برادر شوهر</t>
         </is>
       </c>
       <c r="D835" t="inlineStr">
         <is>
-          <t>خواهرزاده شوهرم خانه ما است</t>
+          <t>خانه برادر شوهرم داخل همین کوچه است</t>
         </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>مرد ٚ برار</t>
+          <t>مرد ٚ برار زن</t>
         </is>
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>مي مرد ٚ برار ٚ خانه هأ کۊچه دۊرۊنه</t>
+          <t>تي مرد ٚ برار زنأ بيدئم</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
         <is>
-          <t>برادر شوهر</t>
+          <t>زن برادر شوهر</t>
         </is>
       </c>
       <c r="D836" t="inlineStr">
         <is>
-          <t>خانه برادر شوهرم داخل همین کوچه است</t>
+          <t>زن برادر شوهرت را دیدم</t>
         </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>مرد ٚ برار زن</t>
+          <t>مرد ٚ خاخۊر</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>تي مرد ٚ برار زنأ بيدئم</t>
+          <t>مي مرد ٚ خاخۊر بۊشؤ خارج</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
         <is>
-          <t>زن برادر شوهر</t>
+          <t>خواهر شوهر</t>
         </is>
       </c>
       <c r="D837" t="inlineStr">
         <is>
-          <t>زن برادر شوهرت را دیدم</t>
+          <t>خواهر شوهرم به خارج رفته است</t>
         </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>مرد ٚ خاخۊر</t>
+          <t>مرد ٚ خاخۊرزا</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>مي مرد ٚ خاخۊر بۊشؤ خارج</t>
+          <t>مي مرد ٚ خاخۊرزا أمي خانه ايسأ</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
         <is>
-          <t>خواهر شوهر</t>
+          <t>خواهرزاده شوهر</t>
         </is>
       </c>
       <c r="D838" t="inlineStr">
         <is>
-          <t>خواهر شوهرم به خارج رفته است</t>
+          <t>خواهرزاده شوهرم خانه ما است</t>
         </is>
       </c>
     </row>
@@ -19062,7 +19062,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>أمين خۊ مچه ٰ عمل بۊکۊده</t>
+          <t>أمين خۊ مچه  ٰ عمل بۊکۊده</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -20778,7 +20778,7 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>ايپچه اۊشنتر همه ٰ وارسي کۊديد</t>
+          <t>ايپچه اۊشنتر همه  ٰ وارسي کۊديد</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
@@ -21174,7 +21174,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>گاب خۊ مانده ٰ واليشتن دره</t>
+          <t>گاب خۊ مانده  ٰ واليشتن دره</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">

--- a/Excel/Top 1000 Words in Gilaki (Farsi).xlsx
+++ b/Excel/Top 1000 Words in Gilaki (Farsi).xlsx
@@ -16378,7 +16378,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>أتؤ نيه کي...</t>
+          <t>أتؤ نيه کي…</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -16388,7 +16388,7 @@
       </c>
       <c r="D726" t="inlineStr">
         <is>
-          <t>اینطور نیست که...</t>
+          <t>اینطور نیست که…</t>
         </is>
       </c>
     </row>
@@ -18539,7 +18539,7 @@
       </c>
       <c r="C824" t="inlineStr">
         <is>
-          <t>چه خوب شد که...</t>
+          <t>چه خوب شد که…</t>
         </is>
       </c>
       <c r="D824" t="inlineStr">

--- a/Excel/Top 1000 Words in Gilaki (Farsi).xlsx
+++ b/Excel/Top 1000 Words in Gilaki (Farsi).xlsx
@@ -1374,7 +1374,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ايوار ايوار شئطان مرأ گه . . .</t>
+          <t>ايوار ايوار شئطان مرأ گه…</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>گهگاه شیطان به من مى‌گوید . . .</t>
+          <t>گهگاه شیطان به من مى‌گوید…</t>
         </is>
       </c>
     </row>

--- a/Excel/Top 1000 Words in Gilaki (Farsi).xlsx
+++ b/Excel/Top 1000 Words in Gilaki (Farsi).xlsx
@@ -2738,7 +2738,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>أن ٚ باقي بمانسته  ٰ چي بۊکۊنم؟</t>
+          <t>أن ٚ باقي بمانسته   ٰ چي بۊکۊنم؟</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>أشان خأئيد همه  ٰ بۊکۊشيد</t>
+          <t>أشان خأئيد همه   ٰ بۊکۊشيد</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -5004,7 +5004,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>أمي مؤبل ٚ دسته  ٰ پت بزه</t>
+          <t>أمي مؤبل ٚ دسته   ٰ پت بزه</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -6962,7 +6962,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>پارچهˈ همهˈ تۊرتۊره   ٰ کۊد</t>
+          <t>پارچهˈ همهˈ تۊرتۊره    ٰ کۊد</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -7358,7 +7358,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>تي وسيله  ٰن کابينت ٚ جؤر نهأ</t>
+          <t>تي وسيله   ٰن کابينت ٚ جؤر نهأ</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -7666,7 +7666,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>خۊ وسيله  ٰنأ جيجاماما کۊدن دره</t>
+          <t>خۊ وسيله   ٰنأ جيجاماما کۊدن دره</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>پارچه   ٰ چارکۊنج واوين</t>
+          <t>پارچه    ٰ چارکۊنج واوين</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -8568,7 +8568,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>چمچه  ٰ بيدئي؟</t>
+          <t>چمچه   ٰ بيدئي؟</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -11252,7 +11252,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>ديرۊ شيمي کۊچه  ٰ دٚوارستم</t>
+          <t>ديرۊ شيمي کۊچه   ٰ دٚوارستم</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -12770,7 +12770,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>تي وسيله  ٰنأ بنه ميز ٚ سر</t>
+          <t>تي وسيله   ٰنأ بنه ميز ٚ سر</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -13298,7 +13298,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>سٚفره   ٰ بۊشؤستم</t>
+          <t>سٚفره    ٰ بۊشؤستم</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -15036,7 +15036,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>سٚفره   ٰ فلگان</t>
+          <t>سٚفره    ٰ فلگان</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -16246,7 +16246,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>بۊشۊ اۊ کلانه  ٰ بأور</t>
+          <t>بۊشۊ اۊ کلانه   ٰ بأور</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -16334,7 +16334,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>بۊشۊ کله  ٰ وأگيران</t>
+          <t>بۊشۊ کله   ٰ وأگيران</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -16928,7 +16928,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>جغله  ٰ ببر گاره دۊرۊن بۊخۊسان</t>
+          <t>جغله   ٰ ببر گاره دۊرۊن بۊخۊسان</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
@@ -17984,7 +17984,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>اۊ لته  ٰ مرأ فأدن ميزأ پأکۊنم</t>
+          <t>اۊ لته   ٰ مرأ فأدن ميزأ پأکۊنم</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
@@ -18050,7 +18050,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>لپه  ٰ تأود</t>
+          <t>لپه   ٰ تأود</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
@@ -18248,7 +18248,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>مئوه  ٰنأ بۊشؤستي؟</t>
+          <t>مئوه   ٰنأ بۊشؤستي؟</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
@@ -19062,7 +19062,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>أمين خۊ مچه  ٰ عمل بۊکۊده</t>
+          <t>أمين خۊ مچه   ٰ عمل بۊکۊده</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -20778,7 +20778,7 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>ايپچه اۊشنتر همه  ٰ وارسي کۊديد</t>
+          <t>ايپچه اۊشنتر همه   ٰ وارسي کۊديد</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
@@ -21174,7 +21174,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>گاب خۊ مانده  ٰ واليشتن دره</t>
+          <t>گاب خۊ مانده   ٰ واليشتن دره</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">

--- a/Excel/Top 1000 Words in Gilaki (Farsi).xlsx
+++ b/Excel/Top 1000 Words in Gilaki (Farsi).xlsx
@@ -643,1320 +643,1320 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>آغۊز</t>
+          <t>آلاخان والاخان</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>آغۊز خۊري؟</t>
+          <t>آلاخان والاخاني جأ بئتره</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>گردو</t>
+          <t>دربه‌در</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>گردو می‌خوری؟</t>
+          <t>از دربه‌دری بهتر است</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>آلاخان والاخان</t>
+          <t>آها</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>آلاخان والاخاني جأ بئتره</t>
+          <t>آها، منم أيم</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>دربه‌در</t>
+          <t>بله</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>از دربه‌دری بهتر است</t>
+          <t>بله، من هم می‌آیم</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>آها</t>
+          <t>آهين</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>آها، منم أيم</t>
+          <t>مي دۊکان آهين پۊرد ٚ ور نهأ</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>بله</t>
+          <t>آهن</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>بله، من هم می‌آیم</t>
+          <t>مغازه من کنار پل آهنی است</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>آهين</t>
+          <t>آوج</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>مي دۊکان آهين پۊرد ٚ ور نهأ</t>
+          <t>هرچي زنگ بزئم آوجأ ندأ</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>آهن</t>
+          <t>جواب</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>مغازه من کنار پل آهنی است</t>
+          <t>هر چه زنگ زدم جواب نداد</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>آوج</t>
+          <t>ارجئن ارجئن</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>هرچي زنگ بزئم آوجأ ندأ</t>
+          <t>﻿کاغذانأ همهˈ ارجئن ارجئنأ کۊده</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>جواب</t>
+          <t>ریز ریز</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>هر چه زنگ زدم جواب نداد</t>
+          <t>تمام کاغذها را ریز ریز کرد</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ارجئن ارجئن</t>
+          <t>اي</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>﻿کاغذانأ همهˈ ارجئن ارجئنأ کۊده</t>
+          <t>اي ميليۊن تۊمۊن پۊل خأیم</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ریز ریز</t>
+          <t>یک</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>تمام کاغذها را ریز ریز کرد</t>
+          <t>یک میلیون تومان پول لازم دارم</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>اي</t>
+          <t>اي فچم</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>اي ميليۊن تۊمۊن پۊل خأیم</t>
+          <t>ترأ بيدينم اي فچم ماچي دهم</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>یک</t>
+          <t>بسیار زیاد</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>یک میلیون تومان پول لازم دارم</t>
+          <t>تو را ببینم بسیار زیاد مى‌بوسم‌ات</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>اي فچم</t>
+          <t>اي وخت</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ترأ بيدينم اي فچم ماچي دهم</t>
+          <t>اي وخت پۊر ترأ خأستيم</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>بسیار زیاد</t>
+          <t>زمانی</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>تو را ببینم بسیار زیاد مى‌بوسم‌ات</t>
+          <t>زمانی تو را خیلى می‌خواستم</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>اي وخت</t>
+          <t>اي ور</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>اي وخت پۊر ترأ خأستيم</t>
+          <t>أن ٚ رختان هرتأ اي ور کفته</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>زمانی</t>
+          <t>یک گوشه</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>زمانی تو را خیلى می‌خواستم</t>
+          <t>هرکدام از لباس‌هایش یک گوشه افتاده است</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>اي ور</t>
+          <t>اي وري</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>أن ٚ رختان هرتأ اي ور کفته</t>
+          <t>أ تابلؤ چي ره اي وري نهأ؟</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>یک گوشه</t>
+          <t>کج</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>هرکدام از لباس‌هایش یک گوشه افتاده است</t>
+          <t>برای چه این تابلو کج است؟</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>اي وري</t>
+          <t>اي پئم</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>أ تابلؤ چي ره اي وري نهأ؟</t>
+          <t>اي پئم سيبيشکا مرأ فأدي؟</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>کج</t>
+          <t>یک مشت</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>برای چه این تابلو کج است؟</t>
+          <t>یک مشت تخمه آفتابگردان به من مى‌دهى؟</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>اي پئم</t>
+          <t>ايتأ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>اي پئم سيبيشکا مرأ فأدي؟</t>
+          <t>ايتأ کاغذ مرأ فأدن</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>یک مشت</t>
+          <t>یک</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>یک مشت تخمه آفتابگردان به من مى‌دهى؟</t>
+          <t>یک کاغذ به من بده</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ايتأ</t>
+          <t>ايجانا</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ايتأ کاغذ مرأ فأدن</t>
+          <t>من ؤ ميعاد ايجانا بۊشؤئيم بيرۊن</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>یک</t>
+          <t>با هم</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>یک کاغذ به من بده</t>
+          <t>من و میعاد با هم بیرون رفتیم</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ايجانا</t>
+          <t>ايدانه</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>من ؤ ميعاد ايجانا بۊشؤئيم بيرۊن</t>
+          <t>ايدانه کۊئي خأيم</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>با هم</t>
+          <t>یک عدد</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>من و میعاد با هم بیرون رفتیم</t>
+          <t>یک عدد کدو مى‌خواهم</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ايدانه</t>
+          <t>ايدفأ</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ايدانه کۊئي خأيم</t>
+          <t>ايدفأ بامؤم شيمي خانه</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>یک عدد</t>
+          <t>یک بار</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>یک عدد کدو مى‌خواهم</t>
+          <t>یک بار به خانه شما آمدم</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ايدفأ</t>
+          <t>ايدفأئي</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ايدفأ بامؤم شيمي خانه</t>
+          <t>ناصر ايدفأئي بامؤ اۊتاق ٚ دۊرۊن</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>یک بار</t>
+          <t>ناگهان</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>یک بار به خانه شما آمدم</t>
+          <t>ناصر ناگهان داخل اتاق آمد</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ايدفأئي</t>
+          <t>ايدقه</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ناصر ايدفأئي بامؤ اۊتاق ٚ دۊرۊن</t>
+          <t>ايدقه بئس</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ناگهان</t>
+          <t>یک دقیقه</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ناصر ناگهان داخل اتاق آمد</t>
+          <t>یک دقیقه صبر کن</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ايدقه</t>
+          <t>ايرۊز</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ايدقه بئس</t>
+          <t>ايرۊز دئه بمانسته مي تعطيلي-يان تۊمانأ به</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>یک دقیقه</t>
+          <t>یک روز</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>یک دقیقه صبر کن</t>
+          <t>یک روز دیگر مانده تا تعطیلاتم تمام شود</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ايرۊز</t>
+          <t>ايزه</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ايرۊز دئه بمانسته مي تعطيلي-يان تۊمانأ به</t>
+          <t>ايزه بۊشۊ اۊشنتر</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>یک روز</t>
+          <t>کمى</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>یک روز دیگر مانده تا تعطیلاتم تمام شود</t>
+          <t>کمى آن طرف‌تر برو</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ايزه</t>
+          <t>ايسأبيد</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ايزه بۊشۊ اۊشنتر</t>
+          <t>ديشب همه أمي خانه ايسابيد</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>کمى</t>
+          <t>بودند</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>کمى آن طرف‌تر برو</t>
+          <t>همه دیشب خانه ما بودند</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ايسأبيد</t>
+          <t>ايستۊل</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ديشب همه أمي خانه ايسابيد</t>
+          <t>أشأن چۊب ٚ جأ ایستۊل چأکۊنيد</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>بودند</t>
+          <t>صندلی</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>همه دیشب خانه ما بودند</t>
+          <t>آن‌ها از چوب صندلی می‌سازند</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ايستۊل</t>
+          <t>ايسم</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>أشأن چۊب ٚ جأ ایستۊل چأکۊنيد</t>
+          <t>تي ايسم چيسه؟</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>صندلی</t>
+          <t>نام</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>آن‌ها از چوب صندلی می‌سازند</t>
+          <t>نام تو چیست؟</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ايسم</t>
+          <t>ايسيد؟</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>تي ايسم چيسه؟</t>
+          <t>شۊمان چن نفر ايسيد؟</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>نام</t>
+          <t>هستید؟</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>نام تو چیست؟</t>
+          <t>شما چند نفر هستید؟</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ايسيد؟</t>
+          <t>ايسکمۊ</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>شۊمان چن نفر ايسيد؟</t>
+          <t>بۊشۊ دۊکان دۊتا ايسکمۊ بيهين</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>هستید؟</t>
+          <t>بستنی یخی</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>شما چند نفر هستید؟</t>
+          <t>برو مغازه دو عدد بستنی یخی بخر</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ايسکمۊ</t>
+          <t>ايشتاو</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>بۊشۊ دۊکان دۊتا ايسکمۊ بيهين</t>
+          <t>هأی أمرأ ايشتاو ديهه</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>بستنی یخی</t>
+          <t>هشدار</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>برو مغازه دو عدد بستنی یخی بخر</t>
+          <t>مدام به ما هشدار می‌دهد</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ايشتاو</t>
+          <t>ايشتاوي</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>هأی أمرأ ايشتاو ديهه</t>
+          <t>ايشتاوي چي گمه؟</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>هشدار</t>
+          <t>می‌شنوی</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>مدام به ما هشدار می‌دهد</t>
+          <t>می‌شنوی چه می‌گویم؟</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ايشتاوي</t>
+          <t>ايششه</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ايشتاوي چي گمه؟</t>
+          <t>ايششه، لانتي</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>می‌شنوی</t>
+          <t>اه (لفظ تنفر)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>می‌شنوی چه می‌گویم؟</t>
+          <t>اه، مار</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ايششه</t>
+          <t>ايشماردن</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ايششه، لانتي</t>
+          <t>مي زأى ايشماردنأ نأنه</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>اه (لفظ تنفر)</t>
+          <t>شمارش</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>اه، مار</t>
+          <t>بچه من شمارش بلد نیست</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ايشماردن</t>
+          <t>ايشکؤر</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>مي زأى ايشماردنأ نأنه</t>
+          <t>کيشکائان ٚ رئم ايشکؤر فۊکۊن</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>شمارش</t>
+          <t>خرده‌برنج</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>بچه من شمارش بلد نیست</t>
+          <t>برای جوجه‌ها هم خرده‌برنج بریز</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ايشکؤر</t>
+          <t>ايشکنئن</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>کيشکائان ٚ رئم ايشکؤر فۊکۊن</t>
+          <t>چي-يأ ايشکنئن دري؟</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>خرده‌برنج</t>
+          <t>شکستن</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>برای جوجه‌ها هم خرده‌برنج بریز</t>
+          <t>دارى چه چیزى را مى‌شکنى؟</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ايشکنئن</t>
+          <t>ايمرۊ</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>چي-يأ ايشکنئن دري؟</t>
+          <t>ايمرۊ بۊشؤم کيتابخانه</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>شکستن</t>
+          <t>امروز</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>دارى چه چیزى را مى‌شکنى؟</t>
+          <t>امروز به کتابخانه رفتم</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ايمرۊ</t>
+          <t>اينسان</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ايمرۊ بۊشؤم کيتابخانه</t>
+          <t>اينسان بۊبۊ</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>امروز</t>
+          <t>انسان</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>امروز به کتابخانه رفتم</t>
+          <t>انسان باش</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>اينسان</t>
+          <t>ايوار ايوار</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>اينسان بۊبۊ</t>
+          <t>ايوار ايوار شئطان مرأ گه…</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>انسان</t>
+          <t>گهگاه</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>انسان باش</t>
+          <t>گهگاه شیطان به من مى‌گوید…</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ايوار ايوار</t>
+          <t>ايواردم</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ايوار ايوار شئطان مرأ گه…</t>
+          <t>ايواردم وا بشم بازار</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>گهگاه</t>
+          <t>یک بار دیگر</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>گهگاه شیطان به من مى‌گوید…</t>
+          <t>یک بار دیگر باید به بازار بروم</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ايواردم</t>
+          <t>ايوارٚکي</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ايواردم وا بشم بازار</t>
+          <t>ايوارٚکي بۊگۊ نأيم ترأ راحتأ کۊن</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>یک بار دیگر</t>
+          <t>به یک باره</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>یک بار دیگر باید به بازار بروم</t>
+          <t>به یک باره بگو نمى‌آیم خودت را خلاص کن</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ايوارٚکي</t>
+          <t>ايپيچم</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ايوارٚکي بۊگۊ نأيم ترأ راحتأ کۊن</t>
+          <t>گۊش نۊکۊني ايپيچم ترأيأ</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>به یک باره</t>
+          <t>برخورد تندی می‌کنم</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>به یک باره بگو نمى‌آیم خودت را خلاص کن</t>
+          <t>توجه نکنى برخورد تندى با تو مى‌کنم</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ايپيچم</t>
+          <t>ايپچه</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>گۊش نۊکۊني ايپيچم ترأيأ</t>
+          <t>ايپچه پلا مه ره دۊکۊن</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>برخورد تندی می‌کنم</t>
+          <t>کمی</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>توجه نکنى برخورد تندى با تو مى‌کنم</t>
+          <t>کمى پلو براى من بریز</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ايپچه</t>
+          <t>ايچي</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ايپچه پلا مه ره دۊکۊن</t>
+          <t>ايچي خأيم ترأ بگم</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>کمی</t>
+          <t>یک‌چیز</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>کمى پلو براى من بریز</t>
+          <t>یک‌چیز مى‌خواهم به تو بگویم</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ايچي</t>
+          <t>اۊتاق</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ايچي خأيم ترأ بگم</t>
+          <t>مي اۊتاق کؤيتأ ايسه؟</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>یک‌چیز</t>
+          <t>اتاق</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>یک‌چیز مى‌خواهم به تو بگویم</t>
+          <t>اتاق من کدام یک است؟</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>اۊتاق</t>
+          <t>اۊدۊشتن</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>مي اۊتاق کؤيتأ ايسه؟</t>
+          <t>سۊمبۊر ٚ مأنستن أمي خۊنأ اۊدۊشتن دريد</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>اتاق</t>
+          <t>مکیدن</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>اتاق من کدام یک است؟</t>
+          <t>مانند زالو دارند خون ما را مى‌دوشند</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>اۊدۊشتن</t>
+          <t>اۊرشين</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>سۊمبۊر ٚ مأنستن أمي خۊنأ اۊدۊشتن دريد</t>
+          <t>کترأيأ اۊسادم قاتؤقا اۊرشين بزئم</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>مکیدن</t>
+          <t>هم زدن</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>مانند زالو دارند خون ما را مى‌دوشند</t>
+          <t>کفگیر چوبى را برداشتم خورش را هم زدم</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>اۊرشين</t>
+          <t>اۊسان</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>کترأيأ اۊسادم قاتؤقا اۊرشين بزئم</t>
+          <t>قاقؤشاقانأ اۊسان بأور</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>هم زدن</t>
+          <t>بردار</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>کفگیر چوبى را برداشتم خورش را هم زدم</t>
+          <t>قاشق‌ها را بردار بیاور</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>اۊسان</t>
+          <t>اۊسه کۊد</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>قاقؤشاقانأ اۊسان بأور</t>
+          <t>أ کيتابأ کي اۊسه کۊد؟</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>بردار</t>
+          <t>فرستاد</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>قاشق‌ها را بردار بیاور</t>
+          <t>این کتاب را چه کسی فرستاد؟</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>اۊسه کۊد</t>
+          <t>اۊشان</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>أ کيتابأ کي اۊسه کۊد؟</t>
+          <t>اۊشان کيسيد؟</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>فرستاد</t>
+          <t>آن‌ها</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>این کتاب را چه کسی فرستاد؟</t>
+          <t>آن‌ها کیستند؟</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>اۊشان</t>
+          <t>اۊشکؤفت</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>اۊشان کيسيد؟</t>
+          <t>آب مرأ اۊشکؤفت</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>آن‌ها</t>
+          <t>در گلو گیر کرد</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>آن‌ها کیستند؟</t>
+          <t>آب در گلویم گیر کرد</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>اۊشکؤفت</t>
+          <t>اۊن</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>آب مرأ اۊشکؤفت</t>
+          <t>اۊن چيسه؟</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>در گلو گیر کرد</t>
+          <t>آن</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>آب در گلویم گیر کرد</t>
+          <t>آن چیست؟</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>اۊن</t>
+          <t>اۊيأ</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>اۊن چيسه؟</t>
+          <t>مهين ٚ کيف اۊيأ نهأ</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>آن</t>
+          <t>آن‌جا</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>آن چیست؟</t>
+          <t>کیف مهین آن‌جا است</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>اۊيأ</t>
+          <t>اۊچين</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>مهين ٚ کيف اۊيأ نهأ</t>
+          <t>تي کيتابانأ اۊچين</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>آن‌جا</t>
+          <t>جمع کن</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>کیف مهین آن‌جا است</t>
+          <t>کتاب‌هایت را جمع کن</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>اۊچين</t>
+          <t>اۊکۊف</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>تي کيتابانأ اۊچين</t>
+          <t>أمه ره اۊکۊف دره</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>جمع کن</t>
+          <t>شگون</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>کتاب‌هایت را جمع کن</t>
+          <t>براى ما شگون دارد</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>اۊکۊف</t>
+          <t>أ</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>أمه ره اۊکۊف دره</t>
+          <t>شۊفاژأ چأکۊدي؟</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>شگون</t>
+          <t>را</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>براى ما شگون دارد</t>
+          <t>شوفاژ را تعمیر کردی؟</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>أ</t>
+          <t>أتؤ</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>شۊفاژأ چأکۊدي؟</t>
+          <t>أتؤ نيه</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>را</t>
+          <t>چنین</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>شوفاژ را تعمیر کردی؟</t>
+          <t>چنین نیست</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>أتؤ</t>
+          <t>أجۊر</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>أتؤ نيه</t>
+          <t>أجۊر چي-يان مرأ حالي نيه</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>چنین</t>
+          <t>این‌گونه</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>چنین نیست</t>
+          <t>این‌گونه چیزها را متوجه نمى‌شوم</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>أجۊر</t>
+          <t>أذب</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>أجۊر چي-يان مرأ حالي نيه</t>
+          <t>مي برار أذبه</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>این‌گونه</t>
+          <t>مجرد</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>این‌گونه چیزها را متوجه نمى‌شوم</t>
+          <t>برادرم مجرد است</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>أذب</t>
+          <t>أرايم</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>مي برار أذبه</t>
+          <t>أرايم بيأ</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>مجرد</t>
+          <t>این‌طرف هم</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>برادرم مجرد است</t>
+          <t>این‌طرف هم بیا</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>أرايم</t>
+          <t>أرسۊ</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>أرايم بيأ</t>
+          <t>تي أرسۊئانأ پاکۊن</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>این‌طرف هم</t>
+          <t>اشک</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>این‌طرف هم بیا</t>
+          <t>اشک‌‌هایت را پاک کن</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>أرسۊ</t>
+          <t>أزازيل</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>تي أرسۊئانأ پاکۊن</t>
+          <t>أ أزازيل ٚ زاکانأ فأندر</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>اشک</t>
+          <t>بسیار شیطان</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>اشک‌‌هایت را پاک کن</t>
+          <t>این بچه‌هاى بسیار شیطان را نگاه کن</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>أزازيل</t>
+          <t>أسباب</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>أ أزازيل ٚ زاکانأ فأندر</t>
+          <t>ايپچه أسباب بأورم بۊخۊري؟</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>بسیار شیطان</t>
+          <t>خوراکى</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>این بچه‌هاى بسیار شیطان را نگاه کن</t>
+          <t>کمى خوراکى بیاورم بخورى؟</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>أسباب</t>
+          <t>أشان</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ايپچه أسباب بأورم بۊخۊري؟</t>
+          <t>أشان کي أمؤن دريد کيسيد؟</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>خوراکى</t>
+          <t>ایشان</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>کمى خوراکى بیاورم بخورى؟</t>
+          <t>ایشان که دارند مى‌آیند چه کسانى هستند؟</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>أشان</t>
+          <t>أشبل</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>أشان کي أمؤن دريد کيسيد؟</t>
+          <t>مائي أشبل ٚ مرأ کۊکۊ چأکۊنيدي</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ایشان</t>
+          <t>تخم ماهى</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>ایشان که دارند مى‌آیند چه کسانى هستند؟</t>
+          <t>با تخم ماهى کوکو درست مى‌کنند</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>أشبل</t>
+          <t>أغۊز</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>مائي أشبل ٚ مرأ کۊکۊ چأکۊنيدي</t>
+          <t>أغۊز خۊري؟</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>تخم ماهى</t>
+          <t>گردو</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>با تخم ماهى کوکو درست مى‌کنند</t>
+          <t>گردو می‌خوری؟</t>
         </is>
       </c>
     </row>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>أن ٚ باقي بمانسته   ٰ چي بۊکۊنم؟</t>
+          <t>أن ٚ باقي بمانسته    ٰ چي بۊکۊنم؟</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4234,7 +4234,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>آغۊز بگنسته مي سرأ</t>
+          <t>أغۊز بگنسته مي سرأ</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>أشان خأئيد همه   ٰ بۊکۊشيد</t>
+          <t>أشان خأئيد همه    ٰ بۊکۊشيد</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>أمي آغۊز دار هني پاچه</t>
+          <t>أمي أغۊز دار هني پاچه</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -5004,7 +5004,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>أمي مؤبل ٚ دسته   ٰ پت بزه</t>
+          <t>أمي مؤبل ٚ دسته    ٰ پت بزه</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -6962,7 +6962,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>پارچهˈ همهˈ تۊرتۊره    ٰ کۊد</t>
+          <t>پارچهˈ همهˈ تۊرتۊره     ٰ کۊد</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -7358,7 +7358,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>تي وسيله   ٰن کابينت ٚ جؤر نهأ</t>
+          <t>تي وسيله    ٰن کابينت ٚ جؤر نهأ</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -7666,7 +7666,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>خۊ وسيله   ٰنأ جيجاماما کۊدن دره</t>
+          <t>خۊ وسيله    ٰنأ جيجاماما کۊدن دره</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>پارچه    ٰ چارکۊنج واوين</t>
+          <t>پارچه     ٰ چارکۊنج واوين</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -8568,7 +8568,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>چمچه   ٰ بيدئي؟</t>
+          <t>چمچه    ٰ بيدئي؟</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -8590,7 +8590,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>تۊ چنتا آغۊز دأري؟</t>
+          <t>تۊ چنتا أغۊز دأري؟</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -11120,7 +11120,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>تي آغۊزان ديمه بنن</t>
+          <t>تي أغۊزان ديمه بنن</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -11252,7 +11252,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>ديرۊ شيمي کۊچه   ٰ دٚوارستم</t>
+          <t>ديرۊ شيمي کۊچه    ٰ دٚوارستم</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -12770,7 +12770,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>تي وسيله   ٰنأ بنه ميز ٚ سر</t>
+          <t>تي وسيله    ٰنأ بنه ميز ٚ سر</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -13298,7 +13298,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>سٚفره    ٰ بۊشؤستم</t>
+          <t>سٚفره     ٰ بۊشؤستم</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -13843,7 +13843,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>شلار</t>
+          <t>شلار دأئن</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
@@ -15036,7 +15036,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>سٚفره    ٰ فلگان</t>
+          <t>سٚفره     ٰ فلگان</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -16246,7 +16246,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>بۊشۊ اۊ کلانه   ٰ بأور</t>
+          <t>بۊشۊ اۊ کلانه    ٰ بأور</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -16334,7 +16334,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>بۊشۊ کله   ٰ وأگيران</t>
+          <t>بۊشۊ کله    ٰ وأگيران</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -16928,7 +16928,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>جغله   ٰ ببر گاره دۊرۊن بۊخۊسان</t>
+          <t>جغله    ٰ ببر گاره دۊرۊن بۊخۊسان</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
@@ -17302,7 +17302,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>گرزه خۊراک آغۊزه</t>
+          <t>گرزه خۊراک أغۊزه</t>
         </is>
       </c>
       <c r="C768" t="inlineStr">
@@ -17412,7 +17412,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>گمج ٚ مئن آغۊز قاتؤق چأکۊن</t>
+          <t>گمج ٚ مئن أغۊز قاتؤق چأکۊن</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
@@ -17984,7 +17984,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>اۊ لته   ٰ مرأ فأدن ميزأ پأکۊنم</t>
+          <t>اۊ لته    ٰ مرأ فأدن ميزأ پأکۊنم</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
@@ -18050,7 +18050,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>لپه   ٰ تأود</t>
+          <t>لپه    ٰ تأود</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
@@ -18248,7 +18248,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>مئوه   ٰنأ بۊشؤستي؟</t>
+          <t>مئوه    ٰنأ بۊشؤستي؟</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
@@ -19062,7 +19062,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>أمين خۊ مچه   ٰ عمل بۊکۊده</t>
+          <t>أمين خۊ مچه    ٰ عمل بۊکۊده</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -20778,7 +20778,7 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>ايپچه اۊشنتر همه   ٰ وارسي کۊديد</t>
+          <t>ايپچه اۊشنتر همه    ٰ وارسي کۊديد</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
@@ -21174,7 +21174,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>گاب خۊ مانده   ٰ واليشتن دره</t>
+          <t>گاب خۊ مانده    ٰ واليشتن دره</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">

--- a/Excel/Top 1000 Words in Gilaki (Farsi).xlsx
+++ b/Excel/Top 1000 Words in Gilaki (Farsi).xlsx
@@ -1819,12 +1819,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>این‌طرف هم</t>
+          <t>این طرف هم</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>این‌طرف هم بیا</t>
+          <t>این طرف هم بیا</t>
         </is>
       </c>
     </row>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>جه وس هوا سرده أمي دهنأ ألاو بيرۊن أيه</t>
+          <t>هوا سرده أمي دهنأ ألاو بيرۊن أيه</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2000,7 +2000,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>از بس هوا سرد است از دهان ما بخار خارج مى‌شود</t>
+          <t>هوا سرد است از دهان ما بخار خارج مى‌شود</t>
         </is>
       </c>
     </row>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>براى چه این‌قدر تدارک دیده‌اى؟</t>
+          <t>براى چه این قدر تدارک دیده‌اى؟</t>
         </is>
       </c>
     </row>
@@ -3315,12 +3315,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>به‌طور قطع و یقین</t>
+          <t>پس چی</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>به‌طور قطع و یقین مى‌آیم</t>
+          <t>پس چی که مى‌آیم</t>
         </is>
       </c>
     </row>
@@ -3662,7 +3662,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>گيلان ٚ بجاران همه بي پا بؤستن دره</t>
+          <t>گيلان ٚ بجاران همه بي پا بؤستن دريد</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -3672,7 +3672,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>تمام شالیزارهاى گیلان دارد نابود مى‌شود</t>
+          <t>تمام شالیزارهاى گیلان دارند نابود مى‌شوند</t>
         </is>
       </c>
     </row>
@@ -6390,7 +6390,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>أ زأى چقد ترکمه-يه؟</t>
+          <t>أ زأى چندر ترکمه-يه؟</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -12704,17 +12704,17 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>جه وس هوا سرده سانچؤ زئن درم</t>
+          <t>هوا سرده سانچؤ زئن درم</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>سینه‌پهلو</t>
+          <t>سینه پهلو</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>از بس هوا سرد است داریم سینه‌پهلو می‌کنم</t>
+          <t>هوا سرد است دارم سینه پهلو می‌کنم</t>
         </is>
       </c>
     </row>
@@ -13914,7 +13914,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>أيأ چقد گرمه، شه بزم</t>
+          <t>أيأ چندر گرمه، شه بزم</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -13924,7 +13924,7 @@
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>این‌جا چه‌قدر گرم است، عرق زدم</t>
+          <t>این‌جا چه قدر گرم است، عرق زدم</t>
         </is>
       </c>
     </row>
@@ -14606,7 +14606,7 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>فهمیدن این موضوع این‌قدر سخت است؟</t>
+          <t>فهمیدن این موضوع این قدر سخت است؟</t>
         </is>
       </c>
     </row>

--- a/Excel/Top 1000 Words in Gilaki (Farsi).xlsx
+++ b/Excel/Top 1000 Words in Gilaki (Farsi).xlsx
@@ -2738,7 +2738,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>أن ٚ باقي بمانسته    ٰ چي بۊکۊنم؟</t>
+          <t>أن ٚ باقي بمانسته     ٰ چي بۊکۊنم؟</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>أشان خأئيد همه    ٰ بۊکۊشيد</t>
+          <t>أشان خأئيد همه     ٰ بۊکۊشيد</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -5004,7 +5004,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>أمي مؤبل ٚ دسته    ٰ پت بزه</t>
+          <t>أمي مؤبل ٚ دسته     ٰ پت بزه</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -6962,7 +6962,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>پارچهˈ همهˈ تۊرتۊره     ٰ کۊد</t>
+          <t>پارچهˈ همهˈ تۊرتۊره      ٰ کۊد</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -7226,7 +7226,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>سجاد ؤ أکبر تۊکاپرهˈ ديبيد</t>
+          <t>فرزاد ؤ أحمد تۊکاپرهˈ ديبيد</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -7358,7 +7358,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>تي وسيله    ٰن کابينت ٚ جؤر نهأ</t>
+          <t>تي وسيله     ٰن کابينت ٚ جؤر نهأ</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -7666,7 +7666,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>خۊ وسيله    ٰنأ جيجاماما کۊدن دره</t>
+          <t>خۊ وسيله     ٰنأ جيجاماما کۊدن دره</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>پارچه     ٰ چارکۊنج واوين</t>
+          <t>پارچه      ٰ چارکۊنج واوين</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -8568,7 +8568,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>چمچه    ٰ بيدئي؟</t>
+          <t>چمچه     ٰ بيدئي؟</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -11252,7 +11252,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>ديرۊ شيمي کۊچه    ٰ دٚوارستم</t>
+          <t>ديرۊ شيمي کۊچه     ٰ دٚوارستم</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -12770,7 +12770,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>تي وسيله    ٰنأ بنه ميز ٚ سر</t>
+          <t>تي وسيله     ٰنأ بنه ميز ٚ سر</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -13298,7 +13298,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>سٚفره     ٰ بۊشؤستم</t>
+          <t>سٚفره      ٰ بۊشؤستم</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -15036,7 +15036,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>سٚفره     ٰ فلگان</t>
+          <t>سٚفره      ٰ فلگان</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -16246,7 +16246,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>بۊشۊ اۊ کلانه    ٰ بأور</t>
+          <t>بۊشۊ اۊ کلانه     ٰ بأور</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -16334,7 +16334,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>بۊشۊ کله    ٰ وأگيران</t>
+          <t>بۊشۊ کله     ٰ وأگيران</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -16928,7 +16928,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>جغله    ٰ ببر گاره دۊرۊن بۊخۊسان</t>
+          <t>جغله     ٰ ببر گاره دۊرۊن بۊخۊسان</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
@@ -17984,7 +17984,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>اۊ لته    ٰ مرأ فأدن ميزأ پأکۊنم</t>
+          <t>اۊ لته     ٰ مرأ فأدن ميزأ پأکۊنم</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
@@ -18050,7 +18050,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>لپه    ٰ تأود</t>
+          <t>لپه     ٰ تأود</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
@@ -18248,7 +18248,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>مئوه    ٰنأ بۊشؤستي؟</t>
+          <t>مئوه     ٰنأ بۊشؤستي؟</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
@@ -19062,7 +19062,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>أمين خۊ مچه    ٰ عمل بۊکۊده</t>
+          <t>أمين خۊ مچه     ٰ عمل بۊکۊده</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -20778,7 +20778,7 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>ايپچه اۊشنتر همه    ٰ وارسي کۊديد</t>
+          <t>ايپچه اۊشنتر همه     ٰ وارسي کۊديد</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
@@ -20932,7 +20932,7 @@
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>اۊن چیسه تي دينأ وأسئن دري؟</t>
+          <t>اۊن چیسه تي ديمأ وأسئن دري؟</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
@@ -21174,7 +21174,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>گاب خۊ مانده    ٰ واليشتن دره</t>
+          <t>گاب خۊ مانده     ٰ واليشتن دره</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
@@ -21614,7 +21614,7 @@
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>مي اينستا ولگأ دأري؟</t>
+          <t>مي اينستاگرام ولگأ دأري؟</t>
         </is>
       </c>
       <c r="C964" t="inlineStr">
